--- a/doc/wyniki.xlsx
+++ b/doc/wyniki.xlsx
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,10 +393,12 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="27" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -404,7 +406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -433,31 +435,63 @@
         <v>47.451634930714398</v>
       </c>
       <c r="K2">
-        <v>48.2812002540036</v>
+        <v>48.2919910576814</v>
       </c>
       <c r="L2">
-        <v>47.241625275098102</v>
+        <v>47.199279743212799</v>
       </c>
       <c r="M2">
-        <v>46.245004740820598</v>
+        <v>46.227776859575997</v>
       </c>
       <c r="N2">
-        <v>43.188145338772998</v>
+        <v>43.186792682608598</v>
       </c>
       <c r="O2">
-        <v>59.027670734783698</v>
+        <v>59.157508329056498</v>
       </c>
       <c r="P2">
-        <v>56.887142372497998</v>
+        <v>56.872750284884198</v>
       </c>
       <c r="Q2">
-        <v>54.1390191285589</v>
+        <v>54.099709461634198</v>
       </c>
       <c r="R2">
-        <v>47.451634930714398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>47.679346549639398</v>
+      </c>
+      <c r="T2">
+        <f>B2-K2</f>
+        <v>-1.0790803677799943E-2</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2:AA17" si="0">C2-L2</f>
+        <v>4.2345531885302989E-2</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>1.7227881244600951E-2</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>1.3526561643999457E-3</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>-0.12983759427280006</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>1.4392087613799731E-2</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>3.9309666924701503E-2</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>-0.22771161892499947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0.99318452665733004</v>
       </c>
@@ -492,22 +526,54 @@
         <v>0.99052705747266401</v>
       </c>
       <c r="N3">
-        <v>0.98907436564340301</v>
+        <v>0.98905261875973205</v>
       </c>
       <c r="O3">
-        <v>0.98761732443740802</v>
+        <v>0.98766516758148604</v>
       </c>
       <c r="P3">
-        <v>0.98780869701371798</v>
+        <v>0.98787393766473297</v>
       </c>
       <c r="Q3">
-        <v>0.98709974860602501</v>
+        <v>0.98716498925703899</v>
       </c>
       <c r="R3">
-        <v>0.985651406153498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.98491201210866497</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T42" si="1">B3-K3</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>2.1746883670958894E-5</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>-4.7843144078019151E-5</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>-6.5240651014986106E-5</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>-6.5240651013986906E-5</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>7.3939404483303051E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.97790081681295105</v>
       </c>
@@ -533,31 +599,63 @@
         <v>0.96958915787367705</v>
       </c>
       <c r="K4">
-        <v>0.97790081681295105</v>
+        <v>0.97790516618968504</v>
       </c>
       <c r="L4">
-        <v>0.97823571882149296</v>
+        <v>0.97829661009577296</v>
       </c>
       <c r="M4">
-        <v>0.97600448855679001</v>
+        <v>0.97601753668699298</v>
       </c>
       <c r="N4">
-        <v>0.97516940822380205</v>
+        <v>0.97516505884706695</v>
       </c>
       <c r="O4">
-        <v>0.96517019111161395</v>
+        <v>0.96511799859080205</v>
       </c>
       <c r="P4">
-        <v>0.96742751763672297</v>
+        <v>0.96751015579467503</v>
       </c>
       <c r="Q4">
-        <v>0.96895849824720104</v>
+        <v>0.96897589575413801</v>
       </c>
       <c r="R4">
-        <v>0.96958915787367705</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.96877582442436005</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>-4.3493767339919387E-6</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>-6.0891274279994967E-5</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>-1.3048130202975017E-5</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>4.3493767351021617E-6</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>5.2192520811900067E-5</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>-8.2638157952064084E-5</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>-1.7397506936966955E-5</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>8.1333344931699969E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.63287345923329197</v>
       </c>
@@ -583,31 +681,63 @@
         <v>0.63549613340408295</v>
       </c>
       <c r="K5">
-        <v>0.63287345923329197</v>
+        <v>0.63278212232187103</v>
       </c>
       <c r="L5">
-        <v>0.63574839725467303</v>
+        <v>0.63601370923546696</v>
       </c>
       <c r="M5">
-        <v>0.64090675806157005</v>
+        <v>0.64091110743830404</v>
       </c>
       <c r="N5">
         <v>0.65639053923572799</v>
       </c>
       <c r="O5">
-        <v>0.58741377360624203</v>
+        <v>0.58715716037891796</v>
       </c>
       <c r="P5">
-        <v>0.59494254473333996</v>
+        <v>0.59511217042597797</v>
       </c>
       <c r="Q5">
-        <v>0.60467210048800002</v>
+        <v>0.60494611122226205</v>
       </c>
       <c r="R5">
-        <v>0.63549613340408295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.63491331692168496</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>9.133691142093614E-5</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>-2.6531198079393636E-4</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>-4.3493767339919387E-6</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>2.5661322732406511E-4</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>-1.6962569263800908E-4</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>-2.7401073426203126E-4</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>5.8281648239799644E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.34215241955827702</v>
       </c>
@@ -633,284 +763,476 @@
         <v>0.34333110065327599</v>
       </c>
       <c r="K6">
-        <v>0.34215241955827702</v>
+        <v>0.3421045764142</v>
       </c>
       <c r="L6">
-        <v>0.34294400612392201</v>
+        <v>0.343148426830435</v>
       </c>
       <c r="M6">
         <v>0.34512304386781401</v>
       </c>
       <c r="N6">
-        <v>0.35454814325107198</v>
+        <v>0.354565540758009</v>
       </c>
       <c r="O6">
-        <v>0.31689993823884999</v>
+        <v>0.31686949260170999</v>
       </c>
       <c r="P6">
-        <v>0.32019241642672602</v>
+        <v>0.320322897728756</v>
       </c>
       <c r="Q6">
-        <v>0.32468967197000698</v>
+        <v>0.32480275576509898</v>
       </c>
       <c r="R6">
-        <v>0.34333110065327599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.34317017371410702</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>4.784314407701995E-5</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>-2.0442070651299771E-4</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>-1.7397506937022467E-5</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>3.0445637139997483E-5</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>-1.3048130202997221E-4</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>-1.1308379509200606E-4</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>1.609269391689705E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>48.2812002540036</v>
+        <v>45.2942396854531</v>
       </c>
       <c r="C8">
-        <v>47.241625275098102</v>
+        <v>43.3336754843031</v>
       </c>
       <c r="D8">
-        <v>46.245004740820598</v>
+        <v>68.547921432858701</v>
       </c>
       <c r="E8">
-        <v>43.188145338772998</v>
+        <v>64.873041693125401</v>
       </c>
       <c r="F8">
-        <v>59.027670734783698</v>
+        <v>56.175171147974503</v>
       </c>
       <c r="G8">
-        <v>56.887142372497998</v>
+        <v>51.596399585939302</v>
       </c>
       <c r="H8">
-        <v>54.1390191285589</v>
+        <v>45.519924494819897</v>
       </c>
       <c r="I8">
-        <v>47.451634930714398</v>
+        <v>37.526083212275701</v>
       </c>
       <c r="K8">
-        <v>48.2812002540036</v>
+        <v>45.299776442035899</v>
       </c>
       <c r="L8">
-        <v>47.241625275098102</v>
+        <v>43.333745074330899</v>
       </c>
       <c r="M8">
-        <v>46.245004740820598</v>
+        <v>68.495946380883595</v>
       </c>
       <c r="N8">
-        <v>43.188145338772998</v>
+        <v>64.853456449690796</v>
       </c>
       <c r="O8">
-        <v>59.027670734783698</v>
+        <v>56.011595438373703</v>
       </c>
       <c r="P8">
-        <v>56.887142372497998</v>
+        <v>51.586696126445098</v>
       </c>
       <c r="Q8">
-        <v>54.1390191285589</v>
+        <v>45.497525204638201</v>
       </c>
       <c r="R8">
-        <v>47.451634930714398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>37.505075722649003</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>-5.5367565827992848E-3</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>-6.9590027798938081E-5</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>5.1975051975105657E-2</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>1.9585243434605104E-2</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>0.16357570960079926</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>9.7034594942044805E-3</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>2.2399290181695619E-2</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>2.1007489626697406E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>0.99318452665733004</v>
+        <v>0.99826024930627399</v>
       </c>
       <c r="C9">
-        <v>0.99317147852712695</v>
+        <v>0.99825589992954</v>
       </c>
       <c r="D9">
-        <v>0.99052705747266401</v>
+        <v>0.86324254734296602</v>
       </c>
       <c r="E9">
-        <v>0.98907436564340301</v>
+        <v>0.86043284997259895</v>
       </c>
       <c r="F9">
-        <v>0.98761732443740802</v>
+        <v>0.99776876973529705</v>
       </c>
       <c r="G9">
-        <v>0.98780869701371798</v>
+        <v>0.997907949790795</v>
       </c>
       <c r="H9">
-        <v>0.98709974860602501</v>
+        <v>0.99799493732548095</v>
       </c>
       <c r="I9">
-        <v>0.985651406153498</v>
+        <v>0.99818630990179102</v>
       </c>
       <c r="K9">
-        <v>0.99318452665733004</v>
+        <v>0.99826024930627399</v>
       </c>
       <c r="L9">
-        <v>0.99317147852712695</v>
+        <v>0.99825589992954</v>
       </c>
       <c r="M9">
-        <v>0.99052705747266401</v>
+        <v>0.86324254734296602</v>
       </c>
       <c r="N9">
-        <v>0.98907436564340301</v>
+        <v>0.86043284997259895</v>
       </c>
       <c r="O9">
-        <v>0.98761732443740802</v>
+        <v>0.99776876973529705</v>
       </c>
       <c r="P9">
-        <v>0.98780869701371798</v>
+        <v>0.997907949790795</v>
       </c>
       <c r="Q9">
-        <v>0.98709974860602501</v>
+        <v>0.99799493732548095</v>
       </c>
       <c r="R9">
-        <v>0.985651406153498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.99818630990179102</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>0.97790081681295105</v>
+        <v>0.98936142450786801</v>
       </c>
       <c r="C10">
-        <v>0.97823571882149296</v>
+        <v>0.98991379535312596</v>
       </c>
       <c r="D10">
-        <v>0.97600448855679001</v>
+        <v>0.857149070538192</v>
       </c>
       <c r="E10">
-        <v>0.97516940822380205</v>
+        <v>0.85496568341756596</v>
       </c>
       <c r="F10">
-        <v>0.96517019111161395</v>
+        <v>0.98414652180342599</v>
       </c>
       <c r="G10">
-        <v>0.96742751763672297</v>
+        <v>0.98601240442244598</v>
       </c>
       <c r="H10">
-        <v>0.96895849824720104</v>
+        <v>0.987917431432076</v>
       </c>
       <c r="I10">
-        <v>0.96958915787367705</v>
+        <v>0.98994424099026601</v>
       </c>
       <c r="K10">
-        <v>0.97790081681295105</v>
+        <v>0.98928748510338504</v>
       </c>
       <c r="L10">
-        <v>0.97823571882149296</v>
+        <v>0.98980506093476806</v>
       </c>
       <c r="M10">
-        <v>0.97600448855679001</v>
+        <v>0.857149070538192</v>
       </c>
       <c r="N10">
-        <v>0.97516940822380205</v>
+        <v>0.85496133404083197</v>
       </c>
       <c r="O10">
-        <v>0.96517019111161395</v>
+        <v>0.984142172426691</v>
       </c>
       <c r="P10">
-        <v>0.96742751763672297</v>
+        <v>0.98601240442244598</v>
       </c>
       <c r="Q10">
-        <v>0.96895849824720104</v>
+        <v>0.98793047956227897</v>
       </c>
       <c r="R10">
-        <v>0.96958915787367705</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.98994424099026601</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>7.3939404482969984E-5</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>1.087344183579031E-4</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>4.3493767339919387E-6</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>4.3493767349911394E-6</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>-1.3048130202975017E-5</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>0.63287345923329197</v>
+        <v>0.60863438269296</v>
       </c>
       <c r="C11">
-        <v>0.63574839725467303</v>
+        <v>0.61960786019363401</v>
       </c>
       <c r="D11">
-        <v>0.64090675806157005</v>
+        <v>0.56002139893353298</v>
       </c>
       <c r="E11">
-        <v>0.65639053923572799</v>
+        <v>0.59251124313885795</v>
       </c>
       <c r="F11">
-        <v>0.58741377360624203</v>
+        <v>0.55508050696335198</v>
       </c>
       <c r="G11">
-        <v>0.59494254473333996</v>
+        <v>0.57743195400099201</v>
       </c>
       <c r="H11">
-        <v>0.60467210048800002</v>
+        <v>0.60956949869083799</v>
       </c>
       <c r="I11">
-        <v>0.63549613340408295</v>
+        <v>0.66702041597439099</v>
       </c>
       <c r="K11">
-        <v>0.63287345923329197</v>
+        <v>0.60806896371749897</v>
       </c>
       <c r="L11">
-        <v>0.63574839725467303</v>
+        <v>0.61968614897485197</v>
       </c>
       <c r="M11">
-        <v>0.64090675806157005</v>
+        <v>0.56038674657921494</v>
       </c>
       <c r="N11">
-        <v>0.65639053923572799</v>
+        <v>0.59291573517514895</v>
       </c>
       <c r="O11">
-        <v>0.58741377360624203</v>
+        <v>0.55592428604980904</v>
       </c>
       <c r="P11">
-        <v>0.59494254473333996</v>
+        <v>0.577323219582634</v>
       </c>
       <c r="Q11">
-        <v>0.60467210048800002</v>
+        <v>0.60957384806757198</v>
       </c>
       <c r="R11">
-        <v>0.63549613340408295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.66738576362007296</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>5.6541897546102948E-4</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>-7.8288781217961123E-5</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>-3.653476456819682E-4</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>-4.0449203629100428E-4</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>-8.4377908645705268E-4</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>1.0873441835801412E-4</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>-4.3493767339919387E-6</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>-3.653476456819682E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>0.34215241955827702</v>
+        <v>0.27389330108995402</v>
       </c>
       <c r="C12">
-        <v>0.34294400612392201</v>
+        <v>0.27849929105159199</v>
       </c>
       <c r="D12">
-        <v>0.34512304386781401</v>
+        <v>0.24875825294235299</v>
       </c>
       <c r="E12">
-        <v>0.35454814325107198</v>
+        <v>0.27849059229812401</v>
       </c>
       <c r="F12">
-        <v>0.31689993823884999</v>
+        <v>0.24384780660931299</v>
       </c>
       <c r="G12">
-        <v>0.32019241642672602</v>
+        <v>0.25443853895736701</v>
       </c>
       <c r="H12">
-        <v>0.32468967197000698</v>
+        <v>0.26958306874624899</v>
       </c>
       <c r="I12">
-        <v>0.34333110065327599</v>
+        <v>0.31277672909472098</v>
       </c>
       <c r="K12">
-        <v>0.34215241955827702</v>
+        <v>0.27312781078471499</v>
       </c>
       <c r="L12">
-        <v>0.34294400612392201</v>
+        <v>0.278755904278917</v>
       </c>
       <c r="M12">
-        <v>0.34512304386781401</v>
+        <v>0.24887568611418001</v>
       </c>
       <c r="N12">
-        <v>0.35454814325107198</v>
+        <v>0.27919954070581698</v>
       </c>
       <c r="O12">
-        <v>0.31689993823884999</v>
+        <v>0.24412616672030901</v>
       </c>
       <c r="P12">
-        <v>0.32019241642672602</v>
+        <v>0.254386346436556</v>
       </c>
       <c r="Q12">
-        <v>0.32468967197000698</v>
+        <v>0.27006584956375801</v>
       </c>
       <c r="R12">
-        <v>0.34333110065327599</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.31343348498160201</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>7.6549030523903605E-4</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>-2.566132273250088E-4</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>-1.1743317182702495E-4</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>-7.0894840769297751E-4</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>-2.783601109960232E-4</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>5.2192520811011889E-5</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>-4.8278081750902091E-4</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>-6.5675588688102193E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -962,8 +1284,40 @@
       <c r="R14">
         <v>183.34579284788501</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>0.24636174636199826</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0.11058725284598836</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>0.11955131829600418</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>0.13127288859499231</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>4.4668099060061195E-3</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>-2.6270235480012616E-3</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>-4.266738576006901E-3</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>4.9234944629859001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.81130663975852302</v>
       </c>
@@ -1012,8 +1366,40 @@
       <c r="R15">
         <v>0.96854530745744105</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>3.2620325507293213E-4</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>3.4795013873933911E-5</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>7.3939404483969184E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.60973042563000701</v>
       </c>
@@ -1062,8 +1448,40 @@
       <c r="R16">
         <v>0.71694256213084695</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>-6.9590027748978045E-5</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>-2.1746883671069916E-5</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>-5.2192520811011889E-5</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>3.3055263180792327E-4</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="0"/>
+        <v>-8.6987534689830781E-6</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="0"/>
+        <v>-7.8288781217961123E-5</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="0"/>
+        <v>4.3493767349911394E-6</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="0"/>
+        <v>-3.4795013874933112E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>8.3895127828182203E-2</v>
       </c>
@@ -1112,8 +1530,40 @@
       <c r="R17">
         <v>0.119729642742195</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>-2.4356509712160357E-4</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>-3.914439060880015E-5</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>-8.2638157951994695E-5</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="0"/>
+        <v>4.34937673430974E-5</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="0"/>
+        <v>-1.3048130203002772E-5</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="0"/>
+        <v>4.3493767340058165E-6</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="0"/>
+        <v>2.6096260405991667E-5</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="0"/>
+        <v>-2.1746883671999728E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>3.8339755912977697E-2</v>
       </c>
@@ -1162,8 +1612,40 @@
       <c r="R18">
         <v>5.4467244843813899E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>-1.0438504162350176E-4</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ref="U18:U42" si="2">C18-L18</f>
+        <v>1.3048130202898689E-5</v>
+      </c>
+      <c r="V18">
+        <f t="shared" ref="V18:V42" si="3">D18-M18</f>
+        <v>-2.1746883671500128E-5</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ref="W18:W42" si="4">E18-N18</f>
+        <v>-7.3939404483400195E-5</v>
+      </c>
+      <c r="X18">
+        <f t="shared" ref="X18:X42" si="5">F18-O18</f>
+        <v>-8.6987534686985835E-6</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" ref="Y18:Y42" si="6">G18-P18</f>
+        <v>8.6987534686014389E-6</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" ref="Z18:Z42" si="7">H18-Q18</f>
+        <v>1.7397506937300022E-5</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" ref="AA18:AA42" si="8">I18-R18</f>
+        <v>-8.6987534686014389E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1215,8 +1697,40 @@
       <c r="R20">
         <v>36.468353934881101</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>6.0891274202390377E-5</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>1.3165563374798239E-2</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="3"/>
+        <v>-0.1885019876651981</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="4"/>
+        <v>-0.18620986612619816</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="5"/>
+        <v>7.5418192573053489E-3</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="6"/>
+        <v>-0.22015240216079945</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="7"/>
+        <v>7.4896267364010782E-3</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="8"/>
+        <v>-1.9754869127197594E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.99899964335110802</v>
       </c>
@@ -1265,8 +1779,40 @@
       <c r="R21">
         <v>0.99841247749197504</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>-4.3493767339919387E-6</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="4"/>
+        <v>-3.9144390609036073E-5</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="5"/>
+        <v>-4.3493767343028011E-5</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="6"/>
+        <v>7.6549030523898054E-4</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="7"/>
+        <v>1.7397506936966955E-5</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="8"/>
+        <v>-1.3048130202086838E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.98668220843953103</v>
       </c>
@@ -1315,8 +1861,40 @@
       <c r="R22">
         <v>0.98608634382692995</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>-6.9590027748978045E-5</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>-7.8288781216961922E-5</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="3"/>
+        <v>-4.3493767339919387E-6</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="4"/>
+        <v>5.2192520811011889E-5</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="5"/>
+        <v>-1.8702319957497604E-4</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="6"/>
+        <v>8.4812846319104462E-4</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="7"/>
+        <v>-7.3939404482969984E-5</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="8"/>
+        <v>-2.1746883671958095E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.70572986890978495</v>
       </c>
@@ -1365,8 +1943,40 @@
       <c r="R23">
         <v>0.722379283048739</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>7.8288781216961922E-5</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="2"/>
+        <v>-3.4795013875044134E-5</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="3"/>
+        <v>6.4805713341298254E-4</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="4"/>
+        <v>1.1395367043900428E-3</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="5"/>
+        <v>2.3051696691800405E-4</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="6"/>
+        <v>9.8295914195500877E-4</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="7"/>
+        <v>-2.6096260404950833E-5</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="8"/>
+        <v>6.5240651014986106E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.361102653989683</v>
       </c>
@@ -1415,8 +2025,40 @@
       <c r="R24">
         <v>0.37267634547969303</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>3.9144390608980562E-5</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>2.1746883672013606E-5</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="3"/>
+        <v>2.5226385059001766E-4</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="4"/>
+        <v>6.0891274280400198E-4</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="5"/>
+        <v>1.3048130202902852E-4</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="6"/>
+        <v>4.5668455710301536E-4</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="7"/>
+        <v>-1.3048130203030528E-5</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="8"/>
+        <v>9.133691141999245E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1468,8 +2110,40 @@
       <c r="R26">
         <v>81.619310141509402</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>-1.6185141509495793E-2</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="2"/>
+        <v>4.6418042452799568E-2</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="3"/>
+        <v>0.32629716981129775</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="4"/>
+        <v>-1.8337264149991483E-2</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="5"/>
+        <v>-0.13045400943398988</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="6"/>
+        <v>-6.9737617924502615E-2</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="7"/>
+        <v>-70.76953125</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="8"/>
+        <v>-0.64688974056599591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.83178066037735898</v>
       </c>
@@ -1518,8 +2192,40 @@
       <c r="R27">
         <v>0.91213148584905701</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>-6.1910377358398438E-4</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="2"/>
+        <v>-5.7488207547107262E-4</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="3"/>
+        <v>-1.3119103773590046E-3</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="4"/>
+        <v>1.0318396226405291E-4</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="5"/>
+        <v>-1.4740566037008129E-5</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="6"/>
+        <v>5.8962264150919097E-5</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="7"/>
+        <v>-0.98310731132075502</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="8"/>
+        <v>-1.3266509433995655E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.79890919811320804</v>
       </c>
@@ -1568,8 +2274,40 @@
       <c r="R28">
         <v>0.87576650943396195</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>-8.5495283018799384E-4</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="2"/>
+        <v>-9.1391509433991214E-4</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="3"/>
+        <v>-1.7393867924530015E-3</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="4"/>
+        <v>-1.1792452830206024E-4</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="5"/>
+        <v>-1.1792452830095002E-4</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="6"/>
+        <v>2.2110849056600212E-4</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="7"/>
+        <v>-0.94147995283018904</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="8"/>
+        <v>2.1079009433970786E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.45530660377358501</v>
       </c>
@@ -1618,8 +2356,40 @@
       <c r="R29">
         <v>0.482532429245283</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>4.7169811320801891E-4</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="2"/>
+        <v>2.5058962264201678E-4</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="3"/>
+        <v>-7.2228773584898098E-4</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="4"/>
+        <v>2.3584905660400945E-4</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="5"/>
+        <v>7.0754716981197285E-4</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="6"/>
+        <v>2.9481132075404037E-4</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="7"/>
+        <v>-0.50874115566037703</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="8"/>
+        <v>1.2529481132079745E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.18732311320754699</v>
       </c>
@@ -1668,8 +2438,40 @@
       <c r="R30">
         <v>0.21746757075471701</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>2.5058962264098983E-4</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="2"/>
+        <v>1.3266509434001206E-4</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="3"/>
+        <v>-2.2110849056600212E-4</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="4"/>
+        <v>1.4003537735849947E-3</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="5"/>
+        <v>2.8007075471700449E-4</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="6"/>
+        <v>-3.3903301886700765E-4</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="7"/>
+        <v>-0.219295400943396</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="8"/>
+        <v>1.7099056603769869E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1721,8 +2523,40 @@
       <c r="R32">
         <v>108.278388888889</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="3"/>
+        <v>1.4875000000003524E-2</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="4"/>
+        <v>2.3847222222997289E-2</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="7"/>
+        <v>1.4874999999889837E-2</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="8"/>
+        <v>2.3847222222002529E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.74831944444444398</v>
       </c>
@@ -1771,8 +2605,40 @@
       <c r="R33">
         <v>0.77944444444444505</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.73556944444444505</v>
       </c>
@@ -1821,8 +2687,40 @@
       <c r="R34">
         <v>0.76724999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0.27102777777777798</v>
       </c>
@@ -1871,8 +2769,40 @@
       <c r="R35">
         <v>0.30877777777777798</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="3"/>
+        <v>-4.583333333340045E-4</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="4"/>
+        <v>-4.8611111111102057E-4</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="7"/>
+        <v>-4.583333333340045E-4</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="8"/>
+        <v>-4.8611111111096506E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>6.0819444444444502E-2</v>
       </c>
@@ -1921,8 +2851,40 @@
       <c r="R36">
         <v>7.3152777777777803E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="3"/>
+        <v>-2.5000000000000022E-4</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="4"/>
+        <v>-5.6944444444449738E-4</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="7"/>
+        <v>-2.5000000000000022E-4</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="8"/>
+        <v>-5.6944444444449738E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1974,8 +2936,40 @@
       <c r="R38">
         <v>71.377343749999994</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T38">
+        <f t="shared" si="1"/>
+        <v>-0.54408854166669585</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="2"/>
+        <v>-0.54408854166660348</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="3"/>
+        <v>-0.54139322916670096</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="4"/>
+        <v>-9.8177083330028836E-3</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="5"/>
+        <v>-0.14752604166670125</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="6"/>
+        <v>-1.1393229166699825E-2</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="7"/>
+        <v>-0.2369401041665995</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="8"/>
+        <v>-0.21311197916669755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0.98252604166666702</v>
       </c>
@@ -2024,8 +3018,40 @@
       <c r="R39">
         <v>0.88808593749999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T39">
+        <f t="shared" si="1"/>
+        <v>2.3046875000000133E-3</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="2"/>
+        <v>2.3046875000000133E-3</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="3"/>
+        <v>2.3046875000000133E-3</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="4"/>
+        <v>1.4322916666698049E-4</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="5"/>
+        <v>1.2760416666659502E-3</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="6"/>
+        <v>7.1614583333301507E-4</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="7"/>
+        <v>1.4583333333328952E-3</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="8"/>
+        <v>1.3411458333330017E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0.96522135416666699</v>
       </c>
@@ -2074,8 +3100,40 @@
       <c r="R40">
         <v>0.86947916666666702</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T40">
+        <f t="shared" si="1"/>
+        <v>2.5781249999999867E-3</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="2"/>
+        <v>2.5781250000000977E-3</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="3"/>
+        <v>2.5781250000000977E-3</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="4"/>
+        <v>1.4322916666698049E-4</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="5"/>
+        <v>8.3333333333301951E-4</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="6"/>
+        <v>2.6041666666698493E-4</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="7"/>
+        <v>1.158854166666945E-3</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="8"/>
+        <v>1.1588541666659458E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.64462239583333303</v>
       </c>
@@ -2124,8 +3182,40 @@
       <c r="R41">
         <v>0.52610677083333302</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T41">
+        <f t="shared" si="1"/>
+        <v>1.0807291666660168E-3</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="2"/>
+        <v>1.0807291666660168E-3</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="3"/>
+        <v>9.6354166666701158E-4</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="4"/>
+        <v>-7.8124999999984457E-5</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="5"/>
+        <v>2.864583333330728E-4</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="6"/>
+        <v>1.3020833333987625E-5</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="7"/>
+        <v>6.6406250000006217E-4</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="8"/>
+        <v>-3.385416666660257E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0.229244791666667</v>
       </c>
@@ -2173,6 +3263,38 @@
       </c>
       <c r="R42">
         <v>0.20118489583333299</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="1"/>
+        <v>5.338541666670138E-4</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="2"/>
+        <v>5.3385416666698604E-4</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="3"/>
+        <v>5.0781250000000999E-4</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="5"/>
+        <v>1.3020833332988424E-5</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="6"/>
+        <v>-1.3020833332988424E-5</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="7"/>
+        <v>2.6041666667003804E-5</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="8"/>
+        <v>6.5104166667023788E-5</v>
       </c>
     </row>
   </sheetData>

--- a/doc/wyniki.xlsx
+++ b/doc/wyniki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>clip01</t>
   </si>
@@ -44,11 +44,38 @@
   <si>
     <t>highway</t>
   </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>MOG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,8 +106,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,15 +410,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -458,35 +486,35 @@
       <c r="R2">
         <v>47.679346549639398</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="1">
         <f>B2-K2</f>
         <v>-1.0790803677799943E-2</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="1">
         <f t="shared" ref="U2:AA17" si="0">C2-L2</f>
         <v>4.2345531885302989E-2</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="1">
         <f t="shared" si="0"/>
         <v>1.7227881244600951E-2</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="1">
         <f t="shared" si="0"/>
         <v>1.3526561643999457E-3</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="1">
         <f t="shared" si="0"/>
         <v>-0.12983759427280006</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="1">
         <f t="shared" si="0"/>
         <v>1.4392087613799731E-2</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="1">
         <f t="shared" si="0"/>
         <v>3.9309666924701503E-2</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="1">
         <f t="shared" si="0"/>
         <v>-0.22771161892499947</v>
       </c>
@@ -540,35 +568,35 @@
       <c r="R3">
         <v>0.98491201210866497</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <f t="shared" ref="T3:T42" si="1">B3-K3</f>
         <v>0</v>
       </c>
-      <c r="U3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W3">
+      <c r="U3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
         <f t="shared" si="0"/>
         <v>2.1746883670958894E-5</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="1">
         <f t="shared" si="0"/>
         <v>-4.7843144078019151E-5</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="1">
         <f t="shared" si="0"/>
         <v>-6.5240651014986106E-5</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="1">
         <f t="shared" si="0"/>
         <v>-6.5240651013986906E-5</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="1">
         <f t="shared" si="0"/>
         <v>7.3939404483303051E-4</v>
       </c>
@@ -622,35 +650,35 @@
       <c r="R4">
         <v>0.96877582442436005</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="1">
         <f t="shared" si="1"/>
         <v>-4.3493767339919387E-6</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="1">
         <f t="shared" si="0"/>
         <v>-6.0891274279994967E-5</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="1">
         <f t="shared" si="0"/>
         <v>-1.3048130202975017E-5</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="1">
         <f t="shared" si="0"/>
         <v>4.3493767351021617E-6</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="1">
         <f t="shared" si="0"/>
         <v>5.2192520811900067E-5</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="1">
         <f t="shared" si="0"/>
         <v>-8.2638157952064084E-5</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="1">
         <f t="shared" si="0"/>
         <v>-1.7397506936966955E-5</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="1">
         <f t="shared" si="0"/>
         <v>8.1333344931699969E-4</v>
       </c>
@@ -704,35 +732,35 @@
       <c r="R5">
         <v>0.63491331692168496</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="1">
         <f t="shared" si="1"/>
         <v>9.133691142093614E-5</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="1">
         <f t="shared" si="0"/>
         <v>-2.6531198079393636E-4</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="1">
         <f t="shared" si="0"/>
         <v>-4.3493767339919387E-6</v>
       </c>
-      <c r="W5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X5">
+      <c r="W5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
         <f t="shared" si="0"/>
         <v>2.5661322732406511E-4</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="1">
         <f t="shared" si="0"/>
         <v>-1.6962569263800908E-4</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="1">
         <f t="shared" si="0"/>
         <v>-2.7401073426203126E-4</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="1">
         <f t="shared" si="0"/>
         <v>5.8281648239799644E-4</v>
       </c>
@@ -786,38 +814,48 @@
       <c r="R6">
         <v>0.34317017371410702</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="1">
         <f t="shared" si="1"/>
         <v>4.784314407701995E-5</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="1">
         <f t="shared" si="0"/>
         <v>-2.0442070651299771E-4</v>
       </c>
-      <c r="V6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W6">
+      <c r="V6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
         <f t="shared" si="0"/>
         <v>-1.7397506937022467E-5</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="1">
         <f t="shared" si="0"/>
         <v>3.0445637139997483E-5</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="1">
         <f t="shared" si="0"/>
         <v>-1.3048130202997221E-4</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="1">
         <f t="shared" si="0"/>
         <v>-1.1308379509200606E-4</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="1">
         <f t="shared" si="0"/>
         <v>1.609269391689705E-4</v>
       </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -871,35 +909,35 @@
       <c r="R8">
         <v>37.505075722649003</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="1">
         <f t="shared" si="1"/>
         <v>-5.5367565827992848E-3</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="1">
         <f t="shared" si="0"/>
         <v>-6.9590027798938081E-5</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="1">
         <f t="shared" si="0"/>
         <v>5.1975051975105657E-2</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="1">
         <f t="shared" si="0"/>
         <v>1.9585243434605104E-2</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="1">
         <f t="shared" si="0"/>
         <v>0.16357570960079926</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="1">
         <f t="shared" si="0"/>
         <v>9.7034594942044805E-3</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="1">
         <f t="shared" si="0"/>
         <v>2.2399290181695619E-2</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="1">
         <f t="shared" si="0"/>
         <v>2.1007489626697406E-2</v>
       </c>
@@ -953,35 +991,35 @@
       <c r="R9">
         <v>0.99818630990179102</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA9">
+      <c r="U9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1035,35 +1073,35 @@
       <c r="R10">
         <v>0.98994424099026601</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="1">
         <f t="shared" si="1"/>
         <v>7.3939404482969984E-5</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="1">
         <f t="shared" si="0"/>
         <v>1.087344183579031E-4</v>
       </c>
-      <c r="V10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W10">
+      <c r="V10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
         <f t="shared" si="0"/>
         <v>4.3493767339919387E-6</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="1">
         <f t="shared" si="0"/>
         <v>4.3493767349911394E-6</v>
       </c>
-      <c r="Y10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z10">
+      <c r="Y10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
         <f t="shared" si="0"/>
         <v>-1.3048130202975017E-5</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1117,35 +1155,35 @@
       <c r="R11">
         <v>0.66738576362007296</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="1">
         <f t="shared" si="1"/>
         <v>5.6541897546102948E-4</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="1">
         <f t="shared" si="0"/>
         <v>-7.8288781217961123E-5</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="1">
         <f t="shared" si="0"/>
         <v>-3.653476456819682E-4</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="1">
         <f t="shared" si="0"/>
         <v>-4.0449203629100428E-4</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="1">
         <f t="shared" si="0"/>
         <v>-8.4377908645705268E-4</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="1">
         <f t="shared" si="0"/>
         <v>1.0873441835801412E-4</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="1">
         <f t="shared" si="0"/>
         <v>-4.3493767339919387E-6</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="1">
         <f t="shared" si="0"/>
         <v>-3.653476456819682E-4</v>
       </c>
@@ -1199,38 +1237,48 @@
       <c r="R12">
         <v>0.31343348498160201</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="1">
         <f t="shared" si="1"/>
         <v>7.6549030523903605E-4</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="1">
         <f t="shared" si="0"/>
         <v>-2.566132273250088E-4</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="1">
         <f t="shared" si="0"/>
         <v>-1.1743317182702495E-4</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="1">
         <f t="shared" si="0"/>
         <v>-7.0894840769297751E-4</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="1">
         <f t="shared" si="0"/>
         <v>-2.783601109960232E-4</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="1">
         <f t="shared" si="0"/>
         <v>5.2192520811011889E-5</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="1">
         <f t="shared" si="0"/>
         <v>-4.8278081750902091E-4</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="1">
         <f t="shared" si="0"/>
         <v>-6.5675588688102193E-4</v>
       </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1284,35 +1332,35 @@
       <c r="R14">
         <v>183.34579284788501</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="1">
         <f t="shared" si="1"/>
         <v>0.24636174636199826</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="1">
         <f t="shared" si="0"/>
         <v>0.11058725284598836</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="1">
         <f t="shared" si="0"/>
         <v>0.11955131829600418</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="1">
         <f t="shared" si="0"/>
         <v>0.13127288859499231</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="1">
         <f t="shared" si="0"/>
         <v>4.4668099060061195E-3</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="1">
         <f t="shared" si="0"/>
         <v>-2.6270235480012616E-3</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="1">
         <f t="shared" si="0"/>
         <v>-4.266738576006901E-3</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="1">
         <f t="shared" si="0"/>
         <v>4.9234944629859001E-3</v>
       </c>
@@ -1366,35 +1414,35 @@
       <c r="R15">
         <v>0.96854530745744105</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W15">
+      <c r="U15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
         <f t="shared" si="0"/>
         <v>3.2620325507293213E-4</v>
       </c>
-      <c r="X15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z15">
+      <c r="X15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
         <f t="shared" si="0"/>
         <v>3.4795013873933911E-5</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="1">
         <f t="shared" si="0"/>
         <v>7.3939404483969184E-5</v>
       </c>
@@ -1448,35 +1496,35 @@
       <c r="R16">
         <v>0.71694256213084695</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="1">
         <f t="shared" si="1"/>
         <v>-6.9590027748978045E-5</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="1">
         <f t="shared" si="0"/>
         <v>-2.1746883671069916E-5</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="1">
         <f t="shared" si="0"/>
         <v>-5.2192520811011889E-5</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="1">
         <f t="shared" si="0"/>
         <v>3.3055263180792327E-4</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="1">
         <f t="shared" si="0"/>
         <v>-8.6987534689830781E-6</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="1">
         <f t="shared" si="0"/>
         <v>-7.8288781217961123E-5</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="1">
         <f t="shared" si="0"/>
         <v>4.3493767349911394E-6</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="1">
         <f t="shared" si="0"/>
         <v>-3.4795013874933112E-5</v>
       </c>
@@ -1530,35 +1578,35 @@
       <c r="R17">
         <v>0.119729642742195</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="1">
         <f t="shared" si="1"/>
         <v>-2.4356509712160357E-4</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="1">
         <f t="shared" si="0"/>
         <v>-3.914439060880015E-5</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="1">
         <f t="shared" si="0"/>
         <v>-8.2638157951994695E-5</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="1">
         <f t="shared" si="0"/>
         <v>4.34937673430974E-5</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="1">
         <f t="shared" si="0"/>
         <v>-1.3048130203002772E-5</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="1">
         <f t="shared" si="0"/>
         <v>4.3493767340058165E-6</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="1">
         <f t="shared" si="0"/>
         <v>2.6096260405991667E-5</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="1">
         <f t="shared" si="0"/>
         <v>-2.1746883671999728E-5</v>
       </c>
@@ -1612,38 +1660,48 @@
       <c r="R18">
         <v>5.4467244843813899E-2</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="1">
         <f t="shared" si="1"/>
         <v>-1.0438504162350176E-4</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="1">
         <f t="shared" ref="U18:U42" si="2">C18-L18</f>
         <v>1.3048130202898689E-5</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="1">
         <f t="shared" ref="V18:V42" si="3">D18-M18</f>
         <v>-2.1746883671500128E-5</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="1">
         <f t="shared" ref="W18:W42" si="4">E18-N18</f>
         <v>-7.3939404483400195E-5</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="1">
         <f t="shared" ref="X18:X42" si="5">F18-O18</f>
         <v>-8.6987534686985835E-6</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="1">
         <f t="shared" ref="Y18:Y42" si="6">G18-P18</f>
         <v>8.6987534686014389E-6</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="1">
         <f t="shared" ref="Z18:Z42" si="7">H18-Q18</f>
         <v>1.7397506937300022E-5</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="1">
         <f t="shared" ref="AA18:AA42" si="8">I18-R18</f>
         <v>-8.6987534686014389E-6</v>
       </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1697,35 +1755,35 @@
       <c r="R20">
         <v>36.468353934881101</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="1">
         <f t="shared" si="1"/>
         <v>6.0891274202390377E-5</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="1">
         <f t="shared" si="2"/>
         <v>1.3165563374798239E-2</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="1">
         <f t="shared" si="3"/>
         <v>-0.1885019876651981</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="1">
         <f t="shared" si="4"/>
         <v>-0.18620986612619816</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="1">
         <f t="shared" si="5"/>
         <v>7.5418192573053489E-3</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="1">
         <f t="shared" si="6"/>
         <v>-0.22015240216079945</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="1">
         <f t="shared" si="7"/>
         <v>7.4896267364010782E-3</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="1">
         <f t="shared" si="8"/>
         <v>-1.9754869127197594E-2</v>
       </c>
@@ -1779,35 +1837,35 @@
       <c r="R21">
         <v>0.99841247749197504</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="1">
         <f t="shared" si="2"/>
         <v>-4.3493767339919387E-6</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="1">
         <f t="shared" si="4"/>
         <v>-3.9144390609036073E-5</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="1">
         <f t="shared" si="5"/>
         <v>-4.3493767343028011E-5</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="1">
         <f t="shared" si="6"/>
         <v>7.6549030523898054E-4</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="1">
         <f t="shared" si="7"/>
         <v>1.7397506936966955E-5</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="1">
         <f t="shared" si="8"/>
         <v>-1.3048130202086838E-5</v>
       </c>
@@ -1861,35 +1919,35 @@
       <c r="R22">
         <v>0.98608634382692995</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="1">
         <f t="shared" si="1"/>
         <v>-6.9590027748978045E-5</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="1">
         <f t="shared" si="2"/>
         <v>-7.8288781216961922E-5</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="1">
         <f t="shared" si="3"/>
         <v>-4.3493767339919387E-6</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="1">
         <f t="shared" si="4"/>
         <v>5.2192520811011889E-5</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="1">
         <f t="shared" si="5"/>
         <v>-1.8702319957497604E-4</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="1">
         <f t="shared" si="6"/>
         <v>8.4812846319104462E-4</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="1">
         <f t="shared" si="7"/>
         <v>-7.3939404482969984E-5</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="1">
         <f t="shared" si="8"/>
         <v>-2.1746883671958095E-5</v>
       </c>
@@ -1943,35 +2001,35 @@
       <c r="R23">
         <v>0.722379283048739</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="1">
         <f t="shared" si="1"/>
         <v>7.8288781216961922E-5</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="1">
         <f t="shared" si="2"/>
         <v>-3.4795013875044134E-5</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="1">
         <f t="shared" si="3"/>
         <v>6.4805713341298254E-4</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="1">
         <f t="shared" si="4"/>
         <v>1.1395367043900428E-3</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="1">
         <f t="shared" si="5"/>
         <v>2.3051696691800405E-4</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="1">
         <f t="shared" si="6"/>
         <v>9.8295914195500877E-4</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="1">
         <f t="shared" si="7"/>
         <v>-2.6096260404950833E-5</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="1">
         <f t="shared" si="8"/>
         <v>6.5240651014986106E-5</v>
       </c>
@@ -2025,38 +2083,48 @@
       <c r="R24">
         <v>0.37267634547969303</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="1">
         <f t="shared" si="1"/>
         <v>3.9144390608980562E-5</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="1">
         <f t="shared" si="2"/>
         <v>2.1746883672013606E-5</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="1">
         <f t="shared" si="3"/>
         <v>2.5226385059001766E-4</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="1">
         <f t="shared" si="4"/>
         <v>6.0891274280400198E-4</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="1">
         <f t="shared" si="5"/>
         <v>1.3048130202902852E-4</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="1">
         <f t="shared" si="6"/>
         <v>4.5668455710301536E-4</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="1">
         <f t="shared" si="7"/>
         <v>-1.3048130203030528E-5</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="1">
         <f t="shared" si="8"/>
         <v>9.133691141999245E-5</v>
       </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2110,35 +2178,35 @@
       <c r="R26">
         <v>81.619310141509402</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="1">
         <f t="shared" si="1"/>
         <v>-1.6185141509495793E-2</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="1">
         <f t="shared" si="2"/>
         <v>4.6418042452799568E-2</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="1">
         <f t="shared" si="3"/>
         <v>0.32629716981129775</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="1">
         <f t="shared" si="4"/>
         <v>-1.8337264149991483E-2</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="1">
         <f t="shared" si="5"/>
         <v>-0.13045400943398988</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="1">
         <f t="shared" si="6"/>
         <v>-6.9737617924502615E-2</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="1">
         <f t="shared" si="7"/>
         <v>-70.76953125</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="1">
         <f t="shared" si="8"/>
         <v>-0.64688974056599591</v>
       </c>
@@ -2192,35 +2260,35 @@
       <c r="R27">
         <v>0.91213148584905701</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="1">
         <f t="shared" si="1"/>
         <v>-6.1910377358398438E-4</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="1">
         <f t="shared" si="2"/>
         <v>-5.7488207547107262E-4</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="1">
         <f t="shared" si="3"/>
         <v>-1.3119103773590046E-3</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="1">
         <f t="shared" si="4"/>
         <v>1.0318396226405291E-4</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="1">
         <f t="shared" si="5"/>
         <v>-1.4740566037008129E-5</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="1">
         <f t="shared" si="6"/>
         <v>5.8962264150919097E-5</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="1">
         <f t="shared" si="7"/>
         <v>-0.98310731132075502</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="1">
         <f t="shared" si="8"/>
         <v>-1.3266509433995655E-4</v>
       </c>
@@ -2274,35 +2342,35 @@
       <c r="R28">
         <v>0.87576650943396195</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="1">
         <f t="shared" si="1"/>
         <v>-8.5495283018799384E-4</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="1">
         <f t="shared" si="2"/>
         <v>-9.1391509433991214E-4</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="1">
         <f t="shared" si="3"/>
         <v>-1.7393867924530015E-3</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="1">
         <f t="shared" si="4"/>
         <v>-1.1792452830206024E-4</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="1">
         <f t="shared" si="5"/>
         <v>-1.1792452830095002E-4</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="1">
         <f t="shared" si="6"/>
         <v>2.2110849056600212E-4</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="1">
         <f t="shared" si="7"/>
         <v>-0.94147995283018904</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="1">
         <f t="shared" si="8"/>
         <v>2.1079009433970786E-3</v>
       </c>
@@ -2356,35 +2424,35 @@
       <c r="R29">
         <v>0.482532429245283</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="1">
         <f t="shared" si="1"/>
         <v>4.7169811320801891E-4</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="1">
         <f t="shared" si="2"/>
         <v>2.5058962264201678E-4</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="1">
         <f t="shared" si="3"/>
         <v>-7.2228773584898098E-4</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="1">
         <f t="shared" si="4"/>
         <v>2.3584905660400945E-4</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="1">
         <f t="shared" si="5"/>
         <v>7.0754716981197285E-4</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="1">
         <f t="shared" si="6"/>
         <v>2.9481132075404037E-4</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="1">
         <f t="shared" si="7"/>
         <v>-0.50874115566037703</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="1">
         <f t="shared" si="8"/>
         <v>1.2529481132079745E-3</v>
       </c>
@@ -2438,38 +2506,48 @@
       <c r="R30">
         <v>0.21746757075471701</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="1">
         <f t="shared" si="1"/>
         <v>2.5058962264098983E-4</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="1">
         <f t="shared" si="2"/>
         <v>1.3266509434001206E-4</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="1">
         <f t="shared" si="3"/>
         <v>-2.2110849056600212E-4</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="1">
         <f t="shared" si="4"/>
         <v>1.4003537735849947E-3</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="1">
         <f t="shared" si="5"/>
         <v>2.8007075471700449E-4</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="1">
         <f t="shared" si="6"/>
         <v>-3.3903301886700765E-4</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="1">
         <f t="shared" si="7"/>
         <v>-0.219295400943396</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="1">
         <f t="shared" si="8"/>
         <v>1.7099056603769869E-3</v>
       </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -2523,35 +2601,35 @@
       <c r="R32">
         <v>108.278388888889</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V32">
+      <c r="V32" s="1">
         <f t="shared" si="3"/>
         <v>1.4875000000003524E-2</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="1">
         <f t="shared" si="4"/>
         <v>2.3847222222997289E-2</v>
       </c>
-      <c r="X32">
+      <c r="X32" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y32">
+      <c r="Y32" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z32">
+      <c r="Z32" s="1">
         <f t="shared" si="7"/>
         <v>1.4874999999889837E-2</v>
       </c>
-      <c r="AA32">
+      <c r="AA32" s="1">
         <f t="shared" si="8"/>
         <v>2.3847222222002529E-2</v>
       </c>
@@ -2605,35 +2683,35 @@
       <c r="R33">
         <v>0.77944444444444505</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W33">
+      <c r="W33" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X33">
+      <c r="X33" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z33">
+      <c r="Z33" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA33">
+      <c r="AA33" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2687,35 +2765,35 @@
       <c r="R34">
         <v>0.76724999999999999</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W34">
+      <c r="W34" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X34">
+      <c r="X34" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z34">
+      <c r="Z34" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA34">
+      <c r="AA34" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2769,35 +2847,35 @@
       <c r="R35">
         <v>0.30877777777777798</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="1">
         <f t="shared" si="3"/>
         <v>-4.583333333340045E-4</v>
       </c>
-      <c r="W35">
+      <c r="W35" s="1">
         <f t="shared" si="4"/>
         <v>-4.8611111111102057E-4</v>
       </c>
-      <c r="X35">
+      <c r="X35" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y35">
+      <c r="Y35" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z35">
+      <c r="Z35" s="1">
         <f t="shared" si="7"/>
         <v>-4.583333333340045E-4</v>
       </c>
-      <c r="AA35">
+      <c r="AA35" s="1">
         <f t="shared" si="8"/>
         <v>-4.8611111111096506E-4</v>
       </c>
@@ -2851,38 +2929,48 @@
       <c r="R36">
         <v>7.3152777777777803E-2</v>
       </c>
-      <c r="T36">
+      <c r="T36" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V36">
+      <c r="V36" s="1">
         <f t="shared" si="3"/>
         <v>-2.5000000000000022E-4</v>
       </c>
-      <c r="W36">
+      <c r="W36" s="1">
         <f t="shared" si="4"/>
         <v>-5.6944444444449738E-4</v>
       </c>
-      <c r="X36">
+      <c r="X36" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y36">
+      <c r="Y36" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z36">
+      <c r="Z36" s="1">
         <f t="shared" si="7"/>
         <v>-2.5000000000000022E-4</v>
       </c>
-      <c r="AA36">
+      <c r="AA36" s="1">
         <f t="shared" si="8"/>
         <v>-5.6944444444449738E-4</v>
       </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -2936,35 +3024,35 @@
       <c r="R38">
         <v>71.377343749999994</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="1">
         <f t="shared" si="1"/>
         <v>-0.54408854166669585</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="1">
         <f t="shared" si="2"/>
         <v>-0.54408854166660348</v>
       </c>
-      <c r="V38">
+      <c r="V38" s="1">
         <f t="shared" si="3"/>
         <v>-0.54139322916670096</v>
       </c>
-      <c r="W38">
+      <c r="W38" s="1">
         <f t="shared" si="4"/>
         <v>-9.8177083330028836E-3</v>
       </c>
-      <c r="X38">
+      <c r="X38" s="1">
         <f t="shared" si="5"/>
         <v>-0.14752604166670125</v>
       </c>
-      <c r="Y38">
+      <c r="Y38" s="1">
         <f t="shared" si="6"/>
         <v>-1.1393229166699825E-2</v>
       </c>
-      <c r="Z38">
+      <c r="Z38" s="1">
         <f t="shared" si="7"/>
         <v>-0.2369401041665995</v>
       </c>
-      <c r="AA38">
+      <c r="AA38" s="1">
         <f t="shared" si="8"/>
         <v>-0.21311197916669755</v>
       </c>
@@ -3018,35 +3106,35 @@
       <c r="R39">
         <v>0.88808593749999998</v>
       </c>
-      <c r="T39">
+      <c r="T39" s="1">
         <f t="shared" si="1"/>
         <v>2.3046875000000133E-3</v>
       </c>
-      <c r="U39">
+      <c r="U39" s="1">
         <f t="shared" si="2"/>
         <v>2.3046875000000133E-3</v>
       </c>
-      <c r="V39">
+      <c r="V39" s="1">
         <f t="shared" si="3"/>
         <v>2.3046875000000133E-3</v>
       </c>
-      <c r="W39">
+      <c r="W39" s="1">
         <f t="shared" si="4"/>
         <v>1.4322916666698049E-4</v>
       </c>
-      <c r="X39">
+      <c r="X39" s="1">
         <f t="shared" si="5"/>
         <v>1.2760416666659502E-3</v>
       </c>
-      <c r="Y39">
+      <c r="Y39" s="1">
         <f t="shared" si="6"/>
         <v>7.1614583333301507E-4</v>
       </c>
-      <c r="Z39">
+      <c r="Z39" s="1">
         <f t="shared" si="7"/>
         <v>1.4583333333328952E-3</v>
       </c>
-      <c r="AA39">
+      <c r="AA39" s="1">
         <f t="shared" si="8"/>
         <v>1.3411458333330017E-3</v>
       </c>
@@ -3100,35 +3188,35 @@
       <c r="R40">
         <v>0.86947916666666702</v>
       </c>
-      <c r="T40">
+      <c r="T40" s="1">
         <f t="shared" si="1"/>
         <v>2.5781249999999867E-3</v>
       </c>
-      <c r="U40">
+      <c r="U40" s="1">
         <f t="shared" si="2"/>
         <v>2.5781250000000977E-3</v>
       </c>
-      <c r="V40">
+      <c r="V40" s="1">
         <f t="shared" si="3"/>
         <v>2.5781250000000977E-3</v>
       </c>
-      <c r="W40">
+      <c r="W40" s="1">
         <f t="shared" si="4"/>
         <v>1.4322916666698049E-4</v>
       </c>
-      <c r="X40">
+      <c r="X40" s="1">
         <f t="shared" si="5"/>
         <v>8.3333333333301951E-4</v>
       </c>
-      <c r="Y40">
+      <c r="Y40" s="1">
         <f t="shared" si="6"/>
         <v>2.6041666666698493E-4</v>
       </c>
-      <c r="Z40">
+      <c r="Z40" s="1">
         <f t="shared" si="7"/>
         <v>1.158854166666945E-3</v>
       </c>
-      <c r="AA40">
+      <c r="AA40" s="1">
         <f t="shared" si="8"/>
         <v>1.1588541666659458E-3</v>
       </c>
@@ -3182,35 +3270,35 @@
       <c r="R41">
         <v>0.52610677083333302</v>
       </c>
-      <c r="T41">
+      <c r="T41" s="1">
         <f t="shared" si="1"/>
         <v>1.0807291666660168E-3</v>
       </c>
-      <c r="U41">
+      <c r="U41" s="1">
         <f t="shared" si="2"/>
         <v>1.0807291666660168E-3</v>
       </c>
-      <c r="V41">
+      <c r="V41" s="1">
         <f t="shared" si="3"/>
         <v>9.6354166666701158E-4</v>
       </c>
-      <c r="W41">
+      <c r="W41" s="1">
         <f t="shared" si="4"/>
         <v>-7.8124999999984457E-5</v>
       </c>
-      <c r="X41">
+      <c r="X41" s="1">
         <f t="shared" si="5"/>
         <v>2.864583333330728E-4</v>
       </c>
-      <c r="Y41">
+      <c r="Y41" s="1">
         <f t="shared" si="6"/>
         <v>1.3020833333987625E-5</v>
       </c>
-      <c r="Z41">
+      <c r="Z41" s="1">
         <f t="shared" si="7"/>
         <v>6.6406250000006217E-4</v>
       </c>
-      <c r="AA41">
+      <c r="AA41" s="1">
         <f t="shared" si="8"/>
         <v>-3.385416666660257E-4</v>
       </c>
@@ -3264,41 +3352,999 @@
       <c r="R42">
         <v>0.20118489583333299</v>
       </c>
-      <c r="T42">
+      <c r="T42" s="1">
         <f t="shared" si="1"/>
         <v>5.338541666670138E-4</v>
       </c>
-      <c r="U42">
+      <c r="U42" s="1">
         <f t="shared" si="2"/>
         <v>5.3385416666698604E-4</v>
       </c>
-      <c r="V42">
+      <c r="V42" s="1">
         <f t="shared" si="3"/>
         <v>5.0781250000000999E-4</v>
       </c>
-      <c r="W42">
+      <c r="W42" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X42">
+      <c r="X42" s="1">
         <f t="shared" si="5"/>
         <v>1.3020833332988424E-5</v>
       </c>
-      <c r="Y42">
+      <c r="Y42" s="1">
         <f t="shared" si="6"/>
         <v>-1.3020833332988424E-5</v>
       </c>
-      <c r="Z42">
+      <c r="Z42" s="1">
         <f t="shared" si="7"/>
         <v>2.6041666667003804E-5</v>
       </c>
-      <c r="AA42">
+      <c r="AA42" s="1">
         <f t="shared" si="8"/>
         <v>6.5104166667023788E-5</v>
       </c>
     </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>85.9989474508303</v>
+      </c>
+      <c r="C45">
+        <v>53.892113710105299</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>64.549156655851206</v>
+      </c>
+      <c r="F45">
+        <v>66.643403300307099</v>
+      </c>
+      <c r="G45">
+        <v>79.717273114762705</v>
+      </c>
+      <c r="H45">
+        <v>99.420436851399202</v>
+      </c>
+      <c r="I45">
+        <v>112.609021477222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0.97598274167311805</v>
+      </c>
+      <c r="C46">
+        <v>0.97717447089831999</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0.94608077662471002</v>
+      </c>
+      <c r="F46">
+        <v>0.94928191790116501</v>
+      </c>
+      <c r="G46">
+        <v>0.95488826451169595</v>
+      </c>
+      <c r="H46">
+        <v>0.96202994110943896</v>
+      </c>
+      <c r="I46">
+        <v>0.96892370323332699</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0.86847049817761102</v>
+      </c>
+      <c r="C47">
+        <v>0.94884263085099896</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0.90041667029114703</v>
+      </c>
+      <c r="F47">
+        <v>0.894444976034934</v>
+      </c>
+      <c r="G47">
+        <v>0.88989117859410805</v>
+      </c>
+      <c r="H47">
+        <v>0.88435442201132597</v>
+      </c>
+      <c r="I47">
+        <v>0.78979897180734004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0.46937603841369502</v>
+      </c>
+      <c r="C48">
+        <v>0.58158995815899595</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0.57567915517706303</v>
+      </c>
+      <c r="F48">
+        <v>0.57194738993902206</v>
+      </c>
+      <c r="G48">
+        <v>0.46750145704120599</v>
+      </c>
+      <c r="H48">
+        <v>0.348989639784619</v>
+      </c>
+      <c r="I48">
+        <v>0.35246914117207001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0.22235753616506801</v>
+      </c>
+      <c r="C49">
+        <v>0.28227455005697699</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0.284592767856366</v>
+      </c>
+      <c r="F49">
+        <v>0.29149087935698798</v>
+      </c>
+      <c r="G49">
+        <v>0.22394070929635801</v>
+      </c>
+      <c r="H49">
+        <v>0.16182726015362001</v>
+      </c>
+      <c r="I49">
+        <v>0.16675075461686301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>38.393422872502398</v>
+      </c>
+      <c r="C51">
+        <v>13.1535982393723</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>29.543028384032599</v>
+      </c>
+      <c r="F51">
+        <v>32.9743038822537</v>
+      </c>
+      <c r="G51">
+        <v>45.479879783227098</v>
+      </c>
+      <c r="H51">
+        <v>60.4861776807384</v>
+      </c>
+      <c r="I51">
+        <v>48.315529884567503</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0.99927800346210405</v>
+      </c>
+      <c r="C52">
+        <v>0.99891265581642197</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0.97989283135726701</v>
+      </c>
+      <c r="F52">
+        <v>0.98356805469776198</v>
+      </c>
+      <c r="G52">
+        <v>0.98802616585043401</v>
+      </c>
+      <c r="H52">
+        <v>0.99131429466157495</v>
+      </c>
+      <c r="I52">
+        <v>0.99406745013439601</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0.97715272401464903</v>
+      </c>
+      <c r="C53">
+        <v>0.99618994598074095</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0.95985090336554801</v>
+      </c>
+      <c r="F53">
+        <v>0.96129054706460604</v>
+      </c>
+      <c r="G53">
+        <v>0.96594438017032203</v>
+      </c>
+      <c r="H53">
+        <v>0.96631407719273799</v>
+      </c>
+      <c r="I53">
+        <v>0.91956262667559696</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0.76208039387955695</v>
+      </c>
+      <c r="C54">
+        <v>0.89417531467740696</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0.82064475160709505</v>
+      </c>
+      <c r="F54">
+        <v>0.78597152028114403</v>
+      </c>
+      <c r="G54">
+        <v>0.65636444297532204</v>
+      </c>
+      <c r="H54">
+        <v>0.65238911264015897</v>
+      </c>
+      <c r="I54">
+        <v>0.72841186857923301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0.52993241068554897</v>
+      </c>
+      <c r="C55">
+        <v>0.638897346010317</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0.57335658800094003</v>
+      </c>
+      <c r="F55">
+        <v>0.490296540505746</v>
+      </c>
+      <c r="G55">
+        <v>0.40203463843631199</v>
+      </c>
+      <c r="H55">
+        <v>0.41753146774067301</v>
+      </c>
+      <c r="I55">
+        <v>0.46780591341260802</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>198.54944371471601</v>
+      </c>
+      <c r="C57">
+        <v>201.54178446228701</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>208.83270992266799</v>
+      </c>
+      <c r="F57">
+        <v>208.01210431545201</v>
+      </c>
+      <c r="G57">
+        <v>196.55937334180001</v>
+      </c>
+      <c r="H57">
+        <v>169.61206604093601</v>
+      </c>
+      <c r="I57">
+        <v>151.619960159709</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0.98932228011725898</v>
+      </c>
+      <c r="C58">
+        <v>0.98498595151314805</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0.97983628945972101</v>
+      </c>
+      <c r="F58">
+        <v>0.98302003322923803</v>
+      </c>
+      <c r="G58">
+        <v>0.98985290407884596</v>
+      </c>
+      <c r="H58">
+        <v>0.99301055158795803</v>
+      </c>
+      <c r="I58">
+        <v>0.98309832201045599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0.84779356118268301</v>
+      </c>
+      <c r="C59">
+        <v>0.84638001374403105</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0.66894718986769197</v>
+      </c>
+      <c r="F59">
+        <v>0.71892587792169405</v>
+      </c>
+      <c r="G59">
+        <v>0.81419027653337295</v>
+      </c>
+      <c r="H59">
+        <v>0.85216903417740197</v>
+      </c>
+      <c r="I59">
+        <v>0.87809131951391395</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>9.3102758374724898E-2</v>
+      </c>
+      <c r="C60">
+        <v>9.0032098400299201E-2</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>8.5669673535782295E-2</v>
+      </c>
+      <c r="F60">
+        <v>9.0575770492088495E-2</v>
+      </c>
+      <c r="G60">
+        <v>0.10181021059682099</v>
+      </c>
+      <c r="H60">
+        <v>0.12390069503040201</v>
+      </c>
+      <c r="I60">
+        <v>0.173783696796249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>3.86050678937708E-2</v>
+      </c>
+      <c r="C61">
+        <v>3.7495976826520797E-2</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>3.8291912768900198E-2</v>
+      </c>
+      <c r="F61">
+        <v>4.0305674196887603E-2</v>
+      </c>
+      <c r="G61">
+        <v>4.4602858410389801E-2</v>
+      </c>
+      <c r="H61">
+        <v>5.2162075174627502E-2</v>
+      </c>
+      <c r="I61">
+        <v>7.2338833845110001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>62.8719152045512</v>
+      </c>
+      <c r="C63">
+        <v>32.724114684365702</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>21.694773788916098</v>
+      </c>
+      <c r="F63">
+        <v>26.752550909454701</v>
+      </c>
+      <c r="G63">
+        <v>49.975473864595202</v>
+      </c>
+      <c r="H63">
+        <v>84.897628719804501</v>
+      </c>
+      <c r="I63">
+        <v>111.067689350116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>0.98382901730182104</v>
+      </c>
+      <c r="C64">
+        <v>0.99166659417705405</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0.99525917935959796</v>
+      </c>
+      <c r="F64">
+        <v>0.99608991031585203</v>
+      </c>
+      <c r="G64">
+        <v>0.99786445602345197</v>
+      </c>
+      <c r="H64">
+        <v>0.99909967901599706</v>
+      </c>
+      <c r="I64">
+        <v>0.99640306544072199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>0.93428091754451603</v>
+      </c>
+      <c r="C65">
+        <v>0.97779643177132702</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0.98423350933811204</v>
+      </c>
+      <c r="F65">
+        <v>0.98207621847789195</v>
+      </c>
+      <c r="G65">
+        <v>0.97599578980332102</v>
+      </c>
+      <c r="H65">
+        <v>0.96750580641794004</v>
+      </c>
+      <c r="I65">
+        <v>0.82708182917387896</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>0.590101688428048</v>
+      </c>
+      <c r="C66">
+        <v>0.72479318713628305</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0.86612618411781594</v>
+      </c>
+      <c r="F66">
+        <v>0.81906592785253896</v>
+      </c>
+      <c r="G66">
+        <v>0.55815986569124598</v>
+      </c>
+      <c r="H66">
+        <v>0.36935777103141099</v>
+      </c>
+      <c r="I66">
+        <v>0.35187762593620298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>0.280817508850982</v>
+      </c>
+      <c r="C67">
+        <v>0.350642402943658</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0.60101427465444202</v>
+      </c>
+      <c r="F67">
+        <v>0.49211892935742302</v>
+      </c>
+      <c r="G67">
+        <v>0.26090606216129197</v>
+      </c>
+      <c r="H67">
+        <v>0.16295809810454201</v>
+      </c>
+      <c r="I67">
+        <v>0.16233178785480001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>37.753714622641503</v>
+      </c>
+      <c r="C69">
+        <v>36.534389740565999</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>46.797729952830203</v>
+      </c>
+      <c r="F69">
+        <v>43.772700471698101</v>
+      </c>
+      <c r="G69">
+        <v>36.598614386792498</v>
+      </c>
+      <c r="H69">
+        <v>30.826533018867899</v>
+      </c>
+      <c r="I69">
+        <v>13.092158018867901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>0.99260023584905699</v>
+      </c>
+      <c r="C70">
+        <v>0.99103773584905697</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0.98739681603773599</v>
+      </c>
+      <c r="F70">
+        <v>0.98928360849056596</v>
+      </c>
+      <c r="G70">
+        <v>0.99084610849056598</v>
+      </c>
+      <c r="H70">
+        <v>0.99187794811320795</v>
+      </c>
+      <c r="I70">
+        <v>0.99573997641509404</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>0.97007665094339601</v>
+      </c>
+      <c r="C71">
+        <v>0.96959021226415099</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0.955955188679245</v>
+      </c>
+      <c r="F71">
+        <v>0.96089327830188698</v>
+      </c>
+      <c r="G71">
+        <v>0.964401533018868</v>
+      </c>
+      <c r="H71">
+        <v>0.96786556603773599</v>
+      </c>
+      <c r="I71">
+        <v>0.98083726415094297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>0.73854658018867902</v>
+      </c>
+      <c r="C72">
+        <v>0.74475235849056598</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0.68813384433962299</v>
+      </c>
+      <c r="F72">
+        <v>0.70451061320754704</v>
+      </c>
+      <c r="G72">
+        <v>0.76667158018867898</v>
+      </c>
+      <c r="H72">
+        <v>0.81813089622641499</v>
+      </c>
+      <c r="I72">
+        <v>0.93287146226415096</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>0.47197818396226399</v>
+      </c>
+      <c r="C73">
+        <v>0.47659198113207502</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0.42107900943396198</v>
+      </c>
+      <c r="F73">
+        <v>0.47043042452830203</v>
+      </c>
+      <c r="G73">
+        <v>0.63122051886792496</v>
+      </c>
+      <c r="H73">
+        <v>0.74352889150943402</v>
+      </c>
+      <c r="I73">
+        <v>0.91137971698113196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>105.04234722222201</v>
+      </c>
+      <c r="C75">
+        <v>24.915791666666699</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>67.848944444444399</v>
+      </c>
+      <c r="F75">
+        <v>79.030736111111096</v>
+      </c>
+      <c r="G75">
+        <v>107.884569444444</v>
+      </c>
+      <c r="H75">
+        <v>132.90851388888899</v>
+      </c>
+      <c r="I75">
+        <v>114.17227777777801</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>0.99948611111111096</v>
+      </c>
+      <c r="C76">
+        <v>0.99997222222222204</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0.90922222222222204</v>
+      </c>
+      <c r="F76">
+        <v>0.90768055555555605</v>
+      </c>
+      <c r="G76">
+        <v>0.91381944444444396</v>
+      </c>
+      <c r="H76">
+        <v>0.92644444444444396</v>
+      </c>
+      <c r="I76">
+        <v>0.97372222222222204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>0.87809722222222197</v>
+      </c>
+      <c r="C77">
+        <v>0.99933333333333296</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0.86912500000000004</v>
+      </c>
+      <c r="F77">
+        <v>0.85905555555555602</v>
+      </c>
+      <c r="G77">
+        <v>0.84465277777777803</v>
+      </c>
+      <c r="H77">
+        <v>0.83484722222222196</v>
+      </c>
+      <c r="I77">
+        <v>0.76151388888888905</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>0.44047222222222199</v>
+      </c>
+      <c r="C78">
+        <v>0.74352777777777801</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0.59712500000000002</v>
+      </c>
+      <c r="F78">
+        <v>0.49081944444444398</v>
+      </c>
+      <c r="G78">
+        <v>0.372458333333333</v>
+      </c>
+      <c r="H78">
+        <v>0.367111111111111</v>
+      </c>
+      <c r="I78">
+        <v>0.42969444444444399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>0.22502777777777799</v>
+      </c>
+      <c r="C79">
+        <v>0.31861111111111101</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0.286944444444444</v>
+      </c>
+      <c r="F79">
+        <v>0.22716666666666699</v>
+      </c>
+      <c r="G79">
+        <v>0.19265277777777801</v>
+      </c>
+      <c r="H79">
+        <v>0.19386111111111101</v>
+      </c>
+      <c r="I79">
+        <v>0.22520833333333301</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>56.498554687499997</v>
+      </c>
+      <c r="C81">
+        <v>52.789596354166697</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>74.616080729166697</v>
+      </c>
+      <c r="F81">
+        <v>72.775390625</v>
+      </c>
+      <c r="G81">
+        <v>71.376106770833303</v>
+      </c>
+      <c r="H81">
+        <v>76.528567708333298</v>
+      </c>
+      <c r="I81">
+        <v>82.783749999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>0.98184895833333297</v>
+      </c>
+      <c r="C82">
+        <v>0.98290364583333301</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0.928098958333333</v>
+      </c>
+      <c r="F82">
+        <v>0.93833333333333302</v>
+      </c>
+      <c r="G82">
+        <v>0.953489583333333</v>
+      </c>
+      <c r="H82">
+        <v>0.96513020833333296</v>
+      </c>
+      <c r="I82">
+        <v>0.97996093750000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>0.94319010416666704</v>
+      </c>
+      <c r="C83">
+        <v>0.96296875000000004</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0.88894531249999997</v>
+      </c>
+      <c r="F83">
+        <v>0.89388020833333304</v>
+      </c>
+      <c r="G83">
+        <v>0.90290364583333305</v>
+      </c>
+      <c r="H83">
+        <v>0.91105468749999996</v>
+      </c>
+      <c r="I83">
+        <v>0.88688802083333296</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>0.47669270833333299</v>
+      </c>
+      <c r="C84">
+        <v>0.417786458333333</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0.39144531249999998</v>
+      </c>
+      <c r="F84">
+        <v>0.43359375</v>
+      </c>
+      <c r="G84">
+        <v>0.45192708333333298</v>
+      </c>
+      <c r="H84">
+        <v>0.38944010416666702</v>
+      </c>
+      <c r="I84">
+        <v>0.38791666666666702</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>0.22309895833333299</v>
+      </c>
+      <c r="C85">
+        <v>0.173528645833333</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0.16673177083333299</v>
+      </c>
+      <c r="F85">
+        <v>0.18058593749999999</v>
+      </c>
+      <c r="G85">
+        <v>0.21683593749999999</v>
+      </c>
+      <c r="H85">
+        <v>0.167877604166667</v>
+      </c>
+      <c r="I85">
+        <v>0.16765625000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/wyniki.xlsx
+++ b/doc/wyniki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>clip01</t>
   </si>
@@ -68,6 +68,9 @@
   <si>
     <t>MOG</t>
   </si>
+  <si>
+    <t>Alpha</t>
+  </si>
 </sst>
 </file>
 
@@ -94,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -102,13 +105,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA85"/>
+  <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3385,964 +3407,992 @@
         <v>6.5104166667023788E-5</v>
       </c>
     </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+    </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I45" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="3">
         <v>85.9989474508303</v>
       </c>
-      <c r="C45">
+      <c r="C46" s="3">
         <v>53.892113710105299</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>64.549156655851206</v>
       </c>
-      <c r="F45">
+      <c r="F46" s="3">
         <v>66.643403300307099</v>
       </c>
-      <c r="G45">
+      <c r="G46" s="3">
         <v>79.717273114762705</v>
       </c>
-      <c r="H45">
+      <c r="H46" s="3">
         <v>99.420436851399202</v>
       </c>
-      <c r="I45">
+      <c r="I46" s="3">
         <v>112.609021477222</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B46">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
         <v>0.97598274167311805</v>
       </c>
-      <c r="C46">
+      <c r="C47" s="3">
         <v>0.97717447089831999</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>0.94608077662471002</v>
       </c>
-      <c r="F46">
+      <c r="F47" s="3">
         <v>0.94928191790116501</v>
       </c>
-      <c r="G46">
+      <c r="G47" s="3">
         <v>0.95488826451169595</v>
       </c>
-      <c r="H46">
+      <c r="H47" s="3">
         <v>0.96202994110943896</v>
       </c>
-      <c r="I46">
+      <c r="I47" s="3">
         <v>0.96892370323332699</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B47">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B48" s="3">
         <v>0.86847049817761102</v>
       </c>
-      <c r="C47">
+      <c r="C48" s="3">
         <v>0.94884263085099896</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
         <v>0.90041667029114703</v>
       </c>
-      <c r="F47">
+      <c r="F48" s="3">
         <v>0.894444976034934</v>
       </c>
-      <c r="G47">
+      <c r="G48" s="3">
         <v>0.88989117859410805</v>
       </c>
-      <c r="H47">
+      <c r="H48" s="3">
         <v>0.88435442201132597</v>
       </c>
-      <c r="I47">
+      <c r="I48" s="3">
         <v>0.78979897180734004</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B48">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
         <v>0.46937603841369502</v>
       </c>
-      <c r="C48">
+      <c r="C49" s="3">
         <v>0.58158995815899595</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
         <v>0.57567915517706303</v>
       </c>
-      <c r="F48">
+      <c r="F49" s="3">
         <v>0.57194738993902206</v>
       </c>
-      <c r="G48">
+      <c r="G49" s="3">
         <v>0.46750145704120599</v>
       </c>
-      <c r="H48">
+      <c r="H49" s="3">
         <v>0.348989639784619</v>
       </c>
-      <c r="I48">
+      <c r="I49" s="3">
         <v>0.35246914117207001</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
         <v>0.22235753616506801</v>
       </c>
-      <c r="C49">
+      <c r="C50" s="3">
         <v>0.28227455005697699</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
         <v>0.284592767856366</v>
       </c>
-      <c r="F49">
+      <c r="F50" s="3">
         <v>0.29149087935698798</v>
       </c>
-      <c r="G49">
+      <c r="G50" s="3">
         <v>0.22394070929635801</v>
       </c>
-      <c r="H49">
+      <c r="H50" s="3">
         <v>0.16182726015362001</v>
       </c>
-      <c r="I49">
+      <c r="I50" s="3">
         <v>0.16675075461686301</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>1</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>38.393422872502398</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>13.1535982393723</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
         <v>29.543028384032599</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <v>32.9743038822537</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <v>45.479879783227098</v>
       </c>
-      <c r="H51">
+      <c r="H52">
         <v>60.4861776807384</v>
       </c>
-      <c r="I51">
+      <c r="I52">
         <v>48.315529884567503</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>0.99927800346210405</v>
-      </c>
-      <c r="C52">
-        <v>0.99891265581642197</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0.97989283135726701</v>
-      </c>
-      <c r="F52">
-        <v>0.98356805469776198</v>
-      </c>
-      <c r="G52">
-        <v>0.98802616585043401</v>
-      </c>
-      <c r="H52">
-        <v>0.99131429466157495</v>
-      </c>
-      <c r="I52">
-        <v>0.99406745013439601</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>0.97715272401464903</v>
+        <v>0.99927800346210405</v>
       </c>
       <c r="C53">
-        <v>0.99618994598074095</v>
+        <v>0.99891265581642197</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0.95985090336554801</v>
+        <v>0.97989283135726701</v>
       </c>
       <c r="F53">
-        <v>0.96129054706460604</v>
+        <v>0.98356805469776198</v>
       </c>
       <c r="G53">
-        <v>0.96594438017032203</v>
+        <v>0.98802616585043401</v>
       </c>
       <c r="H53">
-        <v>0.96631407719273799</v>
+        <v>0.99131429466157495</v>
       </c>
       <c r="I53">
-        <v>0.91956262667559696</v>
+        <v>0.99406745013439601</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>0.76208039387955695</v>
+        <v>0.97715272401464903</v>
       </c>
       <c r="C54">
-        <v>0.89417531467740696</v>
+        <v>0.99618994598074095</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0.82064475160709505</v>
+        <v>0.95985090336554801</v>
       </c>
       <c r="F54">
-        <v>0.78597152028114403</v>
+        <v>0.96129054706460604</v>
       </c>
       <c r="G54">
-        <v>0.65636444297532204</v>
+        <v>0.96594438017032203</v>
       </c>
       <c r="H54">
-        <v>0.65238911264015897</v>
+        <v>0.96631407719273799</v>
       </c>
       <c r="I54">
-        <v>0.72841186857923301</v>
+        <v>0.91956262667559696</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55">
+        <v>0.76208039387955695</v>
+      </c>
+      <c r="C55">
+        <v>0.89417531467740696</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0.82064475160709505</v>
+      </c>
+      <c r="F55">
+        <v>0.78597152028114403</v>
+      </c>
+      <c r="G55">
+        <v>0.65636444297532204</v>
+      </c>
+      <c r="H55">
+        <v>0.65238911264015897</v>
+      </c>
+      <c r="I55">
+        <v>0.72841186857923301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56">
         <v>0.52993241068554897</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>0.638897346010317</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
         <v>0.57335658800094003</v>
       </c>
-      <c r="F55">
+      <c r="F56">
         <v>0.490296540505746</v>
       </c>
-      <c r="G55">
+      <c r="G56">
         <v>0.40203463843631199</v>
       </c>
-      <c r="H55">
+      <c r="H56">
         <v>0.41753146774067301</v>
       </c>
-      <c r="I55">
+      <c r="I56">
         <v>0.46780591341260802</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>2</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>198.54944371471601</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <v>201.54178446228701</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
         <v>208.83270992266799</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <v>208.01210431545201</v>
       </c>
-      <c r="G57">
+      <c r="G58">
         <v>196.55937334180001</v>
       </c>
-      <c r="H57">
+      <c r="H58">
         <v>169.61206604093601</v>
       </c>
-      <c r="I57">
+      <c r="I58">
         <v>151.619960159709</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>0.98932228011725898</v>
-      </c>
-      <c r="C58">
-        <v>0.98498595151314805</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0.97983628945972101</v>
-      </c>
-      <c r="F58">
-        <v>0.98302003322923803</v>
-      </c>
-      <c r="G58">
-        <v>0.98985290407884596</v>
-      </c>
-      <c r="H58">
-        <v>0.99301055158795803</v>
-      </c>
-      <c r="I58">
-        <v>0.98309832201045599</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>0.84779356118268301</v>
+        <v>0.98932228011725898</v>
       </c>
       <c r="C59">
-        <v>0.84638001374403105</v>
+        <v>0.98498595151314805</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0.66894718986769197</v>
+        <v>0.97983628945972101</v>
       </c>
       <c r="F59">
-        <v>0.71892587792169405</v>
+        <v>0.98302003322923803</v>
       </c>
       <c r="G59">
-        <v>0.81419027653337295</v>
+        <v>0.98985290407884596</v>
       </c>
       <c r="H59">
-        <v>0.85216903417740197</v>
+        <v>0.99301055158795803</v>
       </c>
       <c r="I59">
-        <v>0.87809131951391395</v>
+        <v>0.98309832201045599</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>9.3102758374724898E-2</v>
+        <v>0.84779356118268301</v>
       </c>
       <c r="C60">
-        <v>9.0032098400299201E-2</v>
+        <v>0.84638001374403105</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>8.5669673535782295E-2</v>
+        <v>0.66894718986769197</v>
       </c>
       <c r="F60">
-        <v>9.0575770492088495E-2</v>
+        <v>0.71892587792169405</v>
       </c>
       <c r="G60">
-        <v>0.10181021059682099</v>
+        <v>0.81419027653337295</v>
       </c>
       <c r="H60">
-        <v>0.12390069503040201</v>
+        <v>0.85216903417740197</v>
       </c>
       <c r="I60">
-        <v>0.173783696796249</v>
+        <v>0.87809131951391395</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61">
+        <v>9.3102758374724898E-2</v>
+      </c>
+      <c r="C61">
+        <v>9.0032098400299201E-2</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>8.5669673535782295E-2</v>
+      </c>
+      <c r="F61">
+        <v>9.0575770492088495E-2</v>
+      </c>
+      <c r="G61">
+        <v>0.10181021059682099</v>
+      </c>
+      <c r="H61">
+        <v>0.12390069503040201</v>
+      </c>
+      <c r="I61">
+        <v>0.173783696796249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62">
         <v>3.86050678937708E-2</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>3.7495976826520797E-2</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
         <v>3.8291912768900198E-2</v>
       </c>
-      <c r="F61">
+      <c r="F62">
         <v>4.0305674196887603E-2</v>
       </c>
-      <c r="G61">
+      <c r="G62">
         <v>4.4602858410389801E-2</v>
       </c>
-      <c r="H61">
+      <c r="H62">
         <v>5.2162075174627502E-2</v>
       </c>
-      <c r="I61">
+      <c r="I62">
         <v>7.2338833845110001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>5</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>62.8719152045512</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>32.724114684365702</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
         <v>21.694773788916098</v>
       </c>
-      <c r="F63">
+      <c r="F64">
         <v>26.752550909454701</v>
       </c>
-      <c r="G63">
+      <c r="G64">
         <v>49.975473864595202</v>
       </c>
-      <c r="H63">
+      <c r="H64">
         <v>84.897628719804501</v>
       </c>
-      <c r="I63">
+      <c r="I64">
         <v>111.067689350116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>0.98382901730182104</v>
-      </c>
-      <c r="C64">
-        <v>0.99166659417705405</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0.99525917935959796</v>
-      </c>
-      <c r="F64">
-        <v>0.99608991031585203</v>
-      </c>
-      <c r="G64">
-        <v>0.99786445602345197</v>
-      </c>
-      <c r="H64">
-        <v>0.99909967901599706</v>
-      </c>
-      <c r="I64">
-        <v>0.99640306544072199</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>0.93428091754451603</v>
+        <v>0.98382901730182104</v>
       </c>
       <c r="C65">
-        <v>0.97779643177132702</v>
+        <v>0.99166659417705405</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.98423350933811204</v>
+        <v>0.99525917935959796</v>
       </c>
       <c r="F65">
-        <v>0.98207621847789195</v>
+        <v>0.99608991031585203</v>
       </c>
       <c r="G65">
-        <v>0.97599578980332102</v>
+        <v>0.99786445602345197</v>
       </c>
       <c r="H65">
-        <v>0.96750580641794004</v>
+        <v>0.99909967901599706</v>
       </c>
       <c r="I65">
-        <v>0.82708182917387896</v>
+        <v>0.99640306544072199</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>0.590101688428048</v>
+        <v>0.93428091754451603</v>
       </c>
       <c r="C66">
-        <v>0.72479318713628305</v>
+        <v>0.97779643177132702</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0.86612618411781594</v>
+        <v>0.98423350933811204</v>
       </c>
       <c r="F66">
-        <v>0.81906592785253896</v>
+        <v>0.98207621847789195</v>
       </c>
       <c r="G66">
-        <v>0.55815986569124598</v>
+        <v>0.97599578980332102</v>
       </c>
       <c r="H66">
-        <v>0.36935777103141099</v>
+        <v>0.96750580641794004</v>
       </c>
       <c r="I66">
-        <v>0.35187762593620298</v>
+        <v>0.82708182917387896</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B67">
+        <v>0.590101688428048</v>
+      </c>
+      <c r="C67">
+        <v>0.72479318713628305</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0.86612618411781594</v>
+      </c>
+      <c r="F67">
+        <v>0.81906592785253896</v>
+      </c>
+      <c r="G67">
+        <v>0.55815986569124598</v>
+      </c>
+      <c r="H67">
+        <v>0.36935777103141099</v>
+      </c>
+      <c r="I67">
+        <v>0.35187762593620298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B68">
         <v>0.280817508850982</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <v>0.350642402943658</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
         <v>0.60101427465444202</v>
       </c>
-      <c r="F67">
+      <c r="F68">
         <v>0.49211892935742302</v>
       </c>
-      <c r="G67">
+      <c r="G68">
         <v>0.26090606216129197</v>
       </c>
-      <c r="H67">
+      <c r="H68">
         <v>0.16295809810454201</v>
       </c>
-      <c r="I67">
+      <c r="I68">
         <v>0.16233178785480001</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>6</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>37.753714622641503</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>36.534389740565999</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
         <v>46.797729952830203</v>
       </c>
-      <c r="F69">
+      <c r="F70">
         <v>43.772700471698101</v>
       </c>
-      <c r="G69">
+      <c r="G70">
         <v>36.598614386792498</v>
       </c>
-      <c r="H69">
+      <c r="H70">
         <v>30.826533018867899</v>
       </c>
-      <c r="I69">
+      <c r="I70">
         <v>13.092158018867901</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <v>0.99260023584905699</v>
-      </c>
-      <c r="C70">
-        <v>0.99103773584905697</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0.98739681603773599</v>
-      </c>
-      <c r="F70">
-        <v>0.98928360849056596</v>
-      </c>
-      <c r="G70">
-        <v>0.99084610849056598</v>
-      </c>
-      <c r="H70">
-        <v>0.99187794811320795</v>
-      </c>
-      <c r="I70">
-        <v>0.99573997641509404</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>0.97007665094339601</v>
+        <v>0.99260023584905699</v>
       </c>
       <c r="C71">
-        <v>0.96959021226415099</v>
+        <v>0.99103773584905697</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0.955955188679245</v>
+        <v>0.98739681603773599</v>
       </c>
       <c r="F71">
-        <v>0.96089327830188698</v>
+        <v>0.98928360849056596</v>
       </c>
       <c r="G71">
-        <v>0.964401533018868</v>
+        <v>0.99084610849056598</v>
       </c>
       <c r="H71">
-        <v>0.96786556603773599</v>
+        <v>0.99187794811320795</v>
       </c>
       <c r="I71">
-        <v>0.98083726415094297</v>
+        <v>0.99573997641509404</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>0.73854658018867902</v>
+        <v>0.97007665094339601</v>
       </c>
       <c r="C72">
-        <v>0.74475235849056598</v>
+        <v>0.96959021226415099</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.68813384433962299</v>
+        <v>0.955955188679245</v>
       </c>
       <c r="F72">
-        <v>0.70451061320754704</v>
+        <v>0.96089327830188698</v>
       </c>
       <c r="G72">
-        <v>0.76667158018867898</v>
+        <v>0.964401533018868</v>
       </c>
       <c r="H72">
-        <v>0.81813089622641499</v>
+        <v>0.96786556603773599</v>
       </c>
       <c r="I72">
-        <v>0.93287146226415096</v>
+        <v>0.98083726415094297</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B73">
+        <v>0.73854658018867902</v>
+      </c>
+      <c r="C73">
+        <v>0.74475235849056598</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0.68813384433962299</v>
+      </c>
+      <c r="F73">
+        <v>0.70451061320754704</v>
+      </c>
+      <c r="G73">
+        <v>0.76667158018867898</v>
+      </c>
+      <c r="H73">
+        <v>0.81813089622641499</v>
+      </c>
+      <c r="I73">
+        <v>0.93287146226415096</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B74">
         <v>0.47197818396226399</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>0.47659198113207502</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
         <v>0.42107900943396198</v>
       </c>
-      <c r="F73">
+      <c r="F74">
         <v>0.47043042452830203</v>
       </c>
-      <c r="G73">
+      <c r="G74">
         <v>0.63122051886792496</v>
       </c>
-      <c r="H73">
+      <c r="H74">
         <v>0.74352889150943402</v>
       </c>
-      <c r="I73">
+      <c r="I74">
         <v>0.91137971698113196</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>7</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <v>105.04234722222201</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>24.915791666666699</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
         <v>67.848944444444399</v>
       </c>
-      <c r="F75">
+      <c r="F76">
         <v>79.030736111111096</v>
       </c>
-      <c r="G75">
+      <c r="G76">
         <v>107.884569444444</v>
       </c>
-      <c r="H75">
+      <c r="H76">
         <v>132.90851388888899</v>
       </c>
-      <c r="I75">
+      <c r="I76">
         <v>114.17227777777801</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <v>0.99948611111111096</v>
-      </c>
-      <c r="C76">
-        <v>0.99997222222222204</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0.90922222222222204</v>
-      </c>
-      <c r="F76">
-        <v>0.90768055555555605</v>
-      </c>
-      <c r="G76">
-        <v>0.91381944444444396</v>
-      </c>
-      <c r="H76">
-        <v>0.92644444444444396</v>
-      </c>
-      <c r="I76">
-        <v>0.97372222222222204</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77">
-        <v>0.87809722222222197</v>
+        <v>0.99948611111111096</v>
       </c>
       <c r="C77">
-        <v>0.99933333333333296</v>
+        <v>0.99997222222222204</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.86912500000000004</v>
+        <v>0.90922222222222204</v>
       </c>
       <c r="F77">
-        <v>0.85905555555555602</v>
+        <v>0.90768055555555605</v>
       </c>
       <c r="G77">
-        <v>0.84465277777777803</v>
+        <v>0.91381944444444396</v>
       </c>
       <c r="H77">
-        <v>0.83484722222222196</v>
+        <v>0.92644444444444396</v>
       </c>
       <c r="I77">
-        <v>0.76151388888888905</v>
+        <v>0.97372222222222204</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78">
-        <v>0.44047222222222199</v>
+        <v>0.87809722222222197</v>
       </c>
       <c r="C78">
-        <v>0.74352777777777801</v>
+        <v>0.99933333333333296</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0.59712500000000002</v>
+        <v>0.86912500000000004</v>
       </c>
       <c r="F78">
-        <v>0.49081944444444398</v>
+        <v>0.85905555555555602</v>
       </c>
       <c r="G78">
-        <v>0.372458333333333</v>
+        <v>0.84465277777777803</v>
       </c>
       <c r="H78">
-        <v>0.367111111111111</v>
+        <v>0.83484722222222196</v>
       </c>
       <c r="I78">
-        <v>0.42969444444444399</v>
+        <v>0.76151388888888905</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79">
+        <v>0.44047222222222199</v>
+      </c>
+      <c r="C79">
+        <v>0.74352777777777801</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0.59712500000000002</v>
+      </c>
+      <c r="F79">
+        <v>0.49081944444444398</v>
+      </c>
+      <c r="G79">
+        <v>0.372458333333333</v>
+      </c>
+      <c r="H79">
+        <v>0.367111111111111</v>
+      </c>
+      <c r="I79">
+        <v>0.42969444444444399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B80">
         <v>0.22502777777777799</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>0.31861111111111101</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
         <v>0.286944444444444</v>
       </c>
-      <c r="F79">
+      <c r="F80">
         <v>0.22716666666666699</v>
       </c>
-      <c r="G79">
+      <c r="G80">
         <v>0.19265277777777801</v>
       </c>
-      <c r="H79">
+      <c r="H80">
         <v>0.19386111111111101</v>
       </c>
-      <c r="I79">
+      <c r="I80">
         <v>0.22520833333333301</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>8</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <v>56.498554687499997</v>
       </c>
-      <c r="C81">
+      <c r="C82">
         <v>52.789596354166697</v>
       </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
         <v>74.616080729166697</v>
       </c>
-      <c r="F81">
+      <c r="F82">
         <v>72.775390625</v>
       </c>
-      <c r="G81">
+      <c r="G82">
         <v>71.376106770833303</v>
       </c>
-      <c r="H81">
+      <c r="H82">
         <v>76.528567708333298</v>
       </c>
-      <c r="I81">
+      <c r="I82">
         <v>82.783749999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B82">
-        <v>0.98184895833333297</v>
-      </c>
-      <c r="C82">
-        <v>0.98290364583333301</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0.928098958333333</v>
-      </c>
-      <c r="F82">
-        <v>0.93833333333333302</v>
-      </c>
-      <c r="G82">
-        <v>0.953489583333333</v>
-      </c>
-      <c r="H82">
-        <v>0.96513020833333296</v>
-      </c>
-      <c r="I82">
-        <v>0.97996093750000002</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B83">
-        <v>0.94319010416666704</v>
+        <v>0.98184895833333297</v>
       </c>
       <c r="C83">
-        <v>0.96296875000000004</v>
+        <v>0.98290364583333301</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0.88894531249999997</v>
+        <v>0.928098958333333</v>
       </c>
       <c r="F83">
-        <v>0.89388020833333304</v>
+        <v>0.93833333333333302</v>
       </c>
       <c r="G83">
-        <v>0.90290364583333305</v>
+        <v>0.953489583333333</v>
       </c>
       <c r="H83">
-        <v>0.91105468749999996</v>
+        <v>0.96513020833333296</v>
       </c>
       <c r="I83">
-        <v>0.88688802083333296</v>
+        <v>0.97996093750000002</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B84">
-        <v>0.47669270833333299</v>
+        <v>0.94319010416666704</v>
       </c>
       <c r="C84">
-        <v>0.417786458333333</v>
+        <v>0.96296875000000004</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0.39144531249999998</v>
+        <v>0.88894531249999997</v>
       </c>
       <c r="F84">
-        <v>0.43359375</v>
+        <v>0.89388020833333304</v>
       </c>
       <c r="G84">
-        <v>0.45192708333333298</v>
+        <v>0.90290364583333305</v>
       </c>
       <c r="H84">
-        <v>0.38944010416666702</v>
+        <v>0.91105468749999996</v>
       </c>
       <c r="I84">
-        <v>0.38791666666666702</v>
+        <v>0.88688802083333296</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B85">
+        <v>0.47669270833333299</v>
+      </c>
+      <c r="C85">
+        <v>0.417786458333333</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0.39144531249999998</v>
+      </c>
+      <c r="F85">
+        <v>0.43359375</v>
+      </c>
+      <c r="G85">
+        <v>0.45192708333333298</v>
+      </c>
+      <c r="H85">
+        <v>0.38944010416666702</v>
+      </c>
+      <c r="I85">
+        <v>0.38791666666666702</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B86">
         <v>0.22309895833333299</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>0.173528645833333</v>
       </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
         <v>0.16673177083333299</v>
       </c>
-      <c r="F85">
+      <c r="F86">
         <v>0.18058593749999999</v>
       </c>
-      <c r="G85">
+      <c r="G86">
         <v>0.21683593749999999</v>
       </c>
-      <c r="H85">
+      <c r="H86">
         <v>0.167877604166667</v>
       </c>
-      <c r="I85">
+      <c r="I86">
         <v>0.16765625000000001</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="E44:I44"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/doc/wyniki.xlsx
+++ b/doc/wyniki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="53">
   <si>
     <t>clip01</t>
   </si>
@@ -150,8 +150,11 @@
     <t xml:space="preserve">α = </t>
   </si>
   <si>
+    <t>Had.</t>
+  </si>
+  <si>
     <r>
-      <t>T</t>
+      <t>T_</t>
     </r>
     <r>
       <rPr>
@@ -179,7 +182,7 @@
   </si>
   <si>
     <r>
-      <t>T</t>
+      <t>T_</t>
     </r>
     <r>
       <rPr>
@@ -207,7 +210,7 @@
   </si>
   <si>
     <r>
-      <t>T</t>
+      <t>T_</t>
     </r>
     <r>
       <rPr>
@@ -235,7 +238,7 @@
   </si>
   <si>
     <r>
-      <t>T</t>
+      <t>T_</t>
     </r>
     <r>
       <rPr>
@@ -274,7 +277,7 @@
   </si>
   <si>
     <r>
-      <t>T</t>
+      <t>T_</t>
     </r>
     <r>
       <rPr>
@@ -313,7 +316,7 @@
   </si>
   <si>
     <r>
-      <t>T</t>
+      <t>T_</t>
     </r>
     <r>
       <rPr>
@@ -351,7 +354,10 @@
     </r>
   </si>
   <si>
-    <t>Had.</t>
+    <t>Aproksymacja średniej</t>
+  </si>
+  <si>
+    <t>Sekwencja</t>
   </si>
 </sst>
 </file>
@@ -363,7 +369,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +402,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -411,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -518,11 +533,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -544,10 +629,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -567,20 +661,1638 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="142">
+  <dxfs count="300">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2018,10 +3730,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="134"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="34"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2416,11 +4128,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="114024832"/>
-        <c:axId val="114026752"/>
+        <c:axId val="102279040"/>
+        <c:axId val="102280576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114024832"/>
+        <c:axId val="102279040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2429,7 +4141,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114026752"/>
+        <c:crossAx val="102280576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2437,7 +4149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114026752"/>
+        <c:axId val="102280576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2448,7 +4160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114024832"/>
+        <c:crossAx val="102279040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2500,7 +4212,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DCT TMAD = 10 Tcorr = 0.6</c:v>
+                  <c:v>DCT T_MAD = 10 T_corr = 0.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2575,7 +4287,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DCT TMAD = 10 Tcorr = 0.7</c:v>
+                  <c:v>DCT T_MAD = 10 T_corr = 0.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2650,7 +4362,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DCT TMAD = 10 Tcorr = 0.8</c:v>
+                  <c:v>DCT T_MAD = 10 T_corr = 0.8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2725,7 +4437,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DCT TMAD = 10 Tcorr = 0.9</c:v>
+                  <c:v>DCT T_MAD = 10 T_corr = 0.9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2800,7 +4512,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DCT TMAD = 20 Tcorr = 0.6</c:v>
+                  <c:v>DCT T_MAD = 20 T_corr = 0.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2875,7 +4587,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DCT TMAD = 20 Tcorr = 0.7</c:v>
+                  <c:v>DCT T_MAD = 20 T_corr = 0.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2950,7 +4662,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DCT TMAD = 20 Tcorr = 0.8</c:v>
+                  <c:v>DCT T_MAD = 20 T_corr = 0.8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3004,7 +4716,7 @@
                   <c:v>42.154820414234599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>70.76953125</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50.693307291666699</c:v>
@@ -3025,7 +4737,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DCT TMAD = 20 Tcorr = 0.9</c:v>
+                  <c:v>DCT T_MAD = 20 T_corr = 0.9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3100,7 +4812,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Had. TMAD = 10 Tcorr = 0.6</c:v>
+                  <c:v>Had. T_MAD = 10 T_corr = 0.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3175,7 +4887,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Had. TMAD = 10 Tcorr = 0.7</c:v>
+                  <c:v>Had. T_MAD = 10 T_corr = 0.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3250,7 +4962,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Had. TMAD = 10 Tcorr = 0.8</c:v>
+                  <c:v>Had. T_MAD = 10 T_corr = 0.8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3325,7 +5037,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Had. TMAD = 10 Tcorr = 0.9</c:v>
+                  <c:v>Had. T_MAD = 10 T_corr = 0.9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3400,7 +5112,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Had. TMAD = 20 Tcorr = 0.6</c:v>
+                  <c:v>Had. T_MAD = 20 T_corr = 0.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3475,7 +5187,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Had. TMAD = 20 Tcorr = 0.7</c:v>
+                  <c:v>Had. T_MAD = 20 T_corr = 0.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3550,7 +5262,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Had. TMAD = 20 Tcorr = 0.8</c:v>
+                  <c:v>Had. T_MAD = 20 T_corr = 0.8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3604,7 +5316,7 @@
                   <c:v>42.147330787498198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.76953125</c:v>
+                  <c:v>70.773565779999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50.930247395833298</c:v>
@@ -3625,7 +5337,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Had. TMAD = 20 Tcorr = 0.9</c:v>
+                  <c:v>Had. T_MAD = 20 T_corr = 0.9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3700,11 +5412,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="32255360"/>
-        <c:axId val="32263168"/>
+        <c:axId val="106724352"/>
+        <c:axId val="106742528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="32255360"/>
+        <c:axId val="106724352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3713,7 +5425,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32263168"/>
+        <c:crossAx val="106742528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3721,7 +5433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32263168"/>
+        <c:axId val="106742528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3732,7 +5444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32255360"/>
+        <c:crossAx val="106724352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3749,7 +5461,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3761,10 +5473,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="134"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="34"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3784,7 +5496,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMAD = 10 Tcorr = 0.6</c:v>
+                  <c:v>T_MAD = 10 T_corr = 0.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3859,7 +5571,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMAD = 10 Tcorr = 0.7</c:v>
+                  <c:v>T_MAD = 10 T_corr = 0.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3934,7 +5646,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMAD = 10 Tcorr = 0.8</c:v>
+                  <c:v>T_MAD = 10 T_corr = 0.8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4009,7 +5721,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMAD = 10 Tcorr = 0.9</c:v>
+                  <c:v>T_MAD = 10 T_corr = 0.9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4084,7 +5796,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMAD = 20 Tcorr = 0.6</c:v>
+                  <c:v>T_MAD = 20 T_corr = 0.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4159,7 +5871,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMAD = 20 Tcorr = 0.7</c:v>
+                  <c:v>T_MAD = 20 T_corr = 0.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4234,7 +5946,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMAD = 20 Tcorr = 0.8</c:v>
+                  <c:v>T_MAD = 20 T_corr = 0.8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4288,7 +6000,7 @@
                   <c:v>42.154820414234599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>70.76953125</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50.693307291666699</c:v>
@@ -4309,7 +6021,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMAD = 20 Tcorr = 0.9</c:v>
+                  <c:v>T_MAD = 20 T_corr = 0.9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4384,11 +6096,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="120177408"/>
-        <c:axId val="120178944"/>
+        <c:axId val="107969152"/>
+        <c:axId val="107979136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120177408"/>
+        <c:axId val="107969152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4397,7 +6109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120178944"/>
+        <c:crossAx val="107979136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4405,7 +6117,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120178944"/>
+        <c:axId val="107979136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4416,7 +6128,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120177408"/>
+        <c:crossAx val="107969152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4468,12 +6180,41 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMAD = 10 Tcorr = 0.6</c:v>
+                  <c:v>T_MAD = 10 T_corr = 0.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$166:$K$166</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$175:$K$175</c:f>
@@ -4514,12 +6255,41 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMAD = 10 Tcorr = 0.7</c:v>
+                  <c:v>T_MAD = 10 T_corr = 0.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$166:$K$166</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$176:$K$176</c:f>
@@ -4560,12 +6330,41 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMAD = 10 Tcorr = 0.8</c:v>
+                  <c:v>T_MAD = 10 T_corr = 0.8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$166:$K$166</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$177:$K$177</c:f>
@@ -4606,12 +6405,41 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMAD = 10 Tcorr = 0.9</c:v>
+                  <c:v>T_MAD = 10 T_corr = 0.9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$166:$K$166</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$178:$K$178</c:f>
@@ -4652,12 +6480,41 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMAD = 20 Tcorr = 0.6</c:v>
+                  <c:v>T_MAD = 20 T_corr = 0.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$166:$K$166</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$179:$K$179</c:f>
@@ -4698,12 +6555,41 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMAD = 20 Tcorr = 0.7</c:v>
+                  <c:v>T_MAD = 20 T_corr = 0.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$166:$K$166</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$180:$K$180</c:f>
@@ -4744,12 +6630,41 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMAD = 20 Tcorr = 0.8</c:v>
+                  <c:v>T_MAD = 20 T_corr = 0.8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$166:$K$166</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$181:$K$181</c:f>
@@ -4769,7 +6684,7 @@
                   <c:v>42.147330787498198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.76953125</c:v>
+                  <c:v>70.773565779999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50.930247395833298</c:v>
@@ -4790,12 +6705,41 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMAD = 20 Tcorr = 0.9</c:v>
+                  <c:v>T_MAD = 20 T_corr = 0.9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$166:$K$166</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$182:$K$182</c:f>
@@ -4836,11 +6780,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48450944"/>
-        <c:axId val="100852864"/>
+        <c:axId val="113318528"/>
+        <c:axId val="113320320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48450944"/>
+        <c:axId val="113318528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4849,7 +6793,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100852864"/>
+        <c:crossAx val="113320320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4857,7 +6801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100852864"/>
+        <c:axId val="113320320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4868,7 +6812,775 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48450944"/>
+        <c:crossAx val="113318528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$229</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Średnia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$228:$I$228</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$229:$I$229</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>85.9989474508303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.393422872502398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198.54944371471601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.8719152045512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.753714622641503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.498554687499997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105.04234722222201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$230</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mediana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$228:$I$228</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$230:$I$230</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>53.892113710105299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.1535982393723</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201.54178446228701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.724114684365702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.534389740565999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.789596354166697</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.915791666666699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$231</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MOG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$228:$I$228</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$231:$I$231</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>86.263981071512504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.1932602058125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181.01076035804101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.4836854878696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.11328125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.6217447916667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.341111111111097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$232</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aproksymacja średniej</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$228:$I$228</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$232:$I$232</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64.549156655851206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.543028384032599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>151.619960159709</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.694773788916098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.092158018867901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.376106770833303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.848944444444399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$233</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DCT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$228:$I$228</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$233:$I$233</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43.188145338772998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.526083212275701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183.35071634234799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.174657921519803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.76953125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.315195312500002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.560569444444397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$234</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hadamard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$228:$I$228</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$234:$I$234</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43.186792682608598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.505075722649003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183.34579284788501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.360867787646001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.773565779999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.859283854166698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.545694444444507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="155653632"/>
+        <c:axId val="155702400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="155653632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155702400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="155702400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155653632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$57:$O$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Metoda Mediana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$59:$N$65</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$59:$O$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>53.892113710105299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.1535982393723</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201.54178446228701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.724114684365702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.534389740565999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.789596354166697</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.915791666666699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$57:$P$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Metoda MOG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$59:$N$65</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$59:$P$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>86.263981071512504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.1932602058125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181.01076035804101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.4836854878696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.11328125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.6217447916667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.341111111111097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="120008064"/>
+        <c:axId val="120128640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="120008064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120128640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="120128640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120008064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4924,16 +7636,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>593913</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>169208</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>268940</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>68355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1098178</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4985,15 +7697,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>425822</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>191619</xdr:rowOff>
+      <xdr:colOff>448234</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>214030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>100852</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5007,6 +7719,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>918880</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>169209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>425822</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>907675</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>34738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>179296</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5302,17 +8074,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI182"/>
+  <dimension ref="A1:AI245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q134" sqref="Q134"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L216" sqref="L216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -8402,31 +11179,31 @@
       <c r="AB50" s="1"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
       <c r="F52" s="2" t="s">
         <v>9</v>
       </c>
@@ -8591,6 +11368,22 @@
       <c r="J57" s="6">
         <v>0.16675075461686301</v>
       </c>
+      <c r="N57" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="O57" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="P57" s="33"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N58" s="33"/>
+      <c r="O58" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P58" s="31" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -8623,8 +11416,15 @@
       <c r="J59" s="2">
         <v>48.315529884567503</v>
       </c>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
+      <c r="N59" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="O59" s="37">
+        <v>53.892113710105299</v>
+      </c>
+      <c r="P59" s="37">
+        <v>86.263981071512504</v>
+      </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
@@ -8654,8 +11454,15 @@
       <c r="J60">
         <v>0.99406745013439601</v>
       </c>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
+      <c r="N60" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="O60" s="37">
+        <v>13.1535982393723</v>
+      </c>
+      <c r="P60" s="37">
+        <v>25.1932602058125</v>
+      </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
@@ -8685,8 +11492,15 @@
       <c r="J61">
         <v>0.91956262667559696</v>
       </c>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
+      <c r="N61" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="O61" s="37">
+        <v>201.54178446228701</v>
+      </c>
+      <c r="P61" s="37">
+        <v>181.01076035804101</v>
+      </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
@@ -8716,8 +11530,15 @@
       <c r="J62">
         <v>0.72841186857923301</v>
       </c>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
+      <c r="N62" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="O62" s="37">
+        <v>32.724114684365702</v>
+      </c>
+      <c r="P62" s="37">
+        <v>63.4836854878696</v>
+      </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
@@ -8747,10 +11568,28 @@
       <c r="J63">
         <v>0.46780591341260802</v>
       </c>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
+      <c r="N63" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="O63" s="37">
+        <v>36.534389740565999</v>
+      </c>
+      <c r="P63" s="37">
+        <v>29.11328125</v>
+      </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N64" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="O64" s="37">
+        <v>52.789596354166697</v>
+      </c>
+      <c r="P64" s="37">
+        <v>55.6217447916667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -8781,8 +11620,17 @@
       <c r="J65" s="2">
         <v>151.619960159709</v>
       </c>
+      <c r="N65" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="O65" s="37">
+        <v>24.915791666666699</v>
+      </c>
+      <c r="P65" s="37">
+        <v>33.341111111111097</v>
+      </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>20</v>
       </c>
@@ -8811,7 +11659,7 @@
         <v>0.98309832201045599</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>19</v>
       </c>
@@ -8840,7 +11688,7 @@
         <v>0.87809131951391395</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>21</v>
       </c>
@@ -8869,7 +11717,7 @@
         <v>0.173783696796249</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>22</v>
       </c>
@@ -8900,11 +11748,11 @@
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -8935,7 +11783,7 @@
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>0.98382901730182104</v>
       </c>
@@ -8963,7 +11811,7 @@
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>0.93428091754451603</v>
       </c>
@@ -8991,7 +11839,7 @@
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>0.590101688428048</v>
       </c>
@@ -9017,7 +11865,7 @@
         <v>0.35187762593620298</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C75">
         <v>0.280817508850982</v>
       </c>
@@ -9043,7 +11891,7 @@
         <v>0.16233178785480001</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -9072,7 +11920,7 @@
         <v>13.092158018867901</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>0.99260023584905699</v>
       </c>
@@ -9098,7 +11946,7 @@
         <v>0.99573997641509404</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>0.97007665094339601</v>
       </c>
@@ -9124,7 +11972,7 @@
         <v>0.98083726415094297</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>0.73854658018867902</v>
       </c>
@@ -9475,86 +12323,86 @@
       </c>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C110" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D110" s="13" t="s">
+      <c r="D110" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E110" s="13" t="s">
+      <c r="E110" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F110" s="13" t="s">
+      <c r="F110" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13" t="s">
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L110" s="13"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
-      <c r="O110" s="13"/>
-      <c r="P110" s="13"/>
-      <c r="Q110" s="13"/>
-      <c r="R110" s="13"/>
-      <c r="S110" s="13" t="s">
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="T110" s="13"/>
-      <c r="U110" s="13"/>
-      <c r="V110" s="13"/>
-      <c r="W110" s="13"/>
-      <c r="X110" s="13"/>
-      <c r="Y110" s="13"/>
-      <c r="Z110" s="13"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="12"/>
+      <c r="X110" s="12"/>
+      <c r="Y110" s="12"/>
+      <c r="Z110" s="12"/>
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="13"/>
-      <c r="K111" s="13">
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12">
         <v>10</v>
       </c>
-      <c r="L111" s="13"/>
-      <c r="M111" s="13"/>
-      <c r="N111" s="13"/>
-      <c r="O111" s="13">
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12">
         <v>20</v>
       </c>
-      <c r="P111" s="13"/>
-      <c r="Q111" s="13"/>
-      <c r="R111" s="13"/>
-      <c r="S111" s="13">
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12">
         <v>10</v>
       </c>
-      <c r="T111" s="13"/>
-      <c r="U111" s="13"/>
-      <c r="V111" s="13"/>
-      <c r="W111" s="13">
+      <c r="T111" s="12"/>
+      <c r="U111" s="12"/>
+      <c r="V111" s="12"/>
+      <c r="W111" s="12">
         <v>20</v>
       </c>
-      <c r="X111" s="13"/>
-      <c r="Y111" s="13"/>
-      <c r="Z111" s="13"/>
+      <c r="X111" s="12"/>
+      <c r="Y111" s="12"/>
+      <c r="Z111" s="12"/>
     </row>
     <row r="112" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
       <c r="F112" s="2" t="s">
         <v>9</v>
       </c>
@@ -10005,13 +12853,13 @@
       </c>
     </row>
     <row r="127" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="C127" s="22" t="s">
+      <c r="C127" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="21"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
     </row>
     <row r="128" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C128" s="2" t="s">
@@ -10029,21 +12877,21 @@
       <c r="G128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AB128" s="12" t="s">
+      <c r="AB128" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AC128" s="12"/>
-      <c r="AD128" s="12"/>
-      <c r="AE128" s="13" t="s">
+      <c r="AC128" s="16"/>
+      <c r="AD128" s="16"/>
+      <c r="AE128" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AF128" s="13"/>
-      <c r="AG128" s="13"/>
-      <c r="AH128" s="13"/>
-      <c r="AI128" s="13"/>
+      <c r="AF128" s="12"/>
+      <c r="AG128" s="12"/>
+      <c r="AH128" s="12"/>
+      <c r="AI128" s="12"/>
     </row>
     <row r="129" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A129" s="20" t="s">
+      <c r="A129" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B129" t="s">
@@ -10064,9 +12912,9 @@
       <c r="G129" s="6">
         <v>112.609021477222</v>
       </c>
-      <c r="AB129" s="12"/>
-      <c r="AC129" s="12"/>
-      <c r="AD129" s="12"/>
+      <c r="AB129" s="16"/>
+      <c r="AC129" s="16"/>
+      <c r="AD129" s="16"/>
       <c r="AE129" s="8" t="s">
         <v>18</v>
       </c>
@@ -10084,7 +12932,7 @@
       </c>
     </row>
     <row r="130" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A130" s="20"/>
+      <c r="A130" s="13"/>
       <c r="B130" t="s">
         <v>36</v>
       </c>
@@ -10103,11 +12951,11 @@
       <c r="G130" s="2">
         <v>48.315529884567503</v>
       </c>
-      <c r="AB130" s="12" t="s">
+      <c r="AB130" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="AC130" s="12"/>
-      <c r="AD130" s="12"/>
+      <c r="AC130" s="16"/>
+      <c r="AD130" s="16"/>
       <c r="AE130" s="9">
         <v>85.9989474508303</v>
       </c>
@@ -10125,7 +12973,7 @@
       </c>
     </row>
     <row r="131" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A131" s="20"/>
+      <c r="A131" s="13"/>
       <c r="B131" t="s">
         <v>37</v>
       </c>
@@ -10144,11 +12992,11 @@
       <c r="G131" s="2">
         <v>151.619960159709</v>
       </c>
-      <c r="AB131" s="12" t="s">
+      <c r="AB131" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AC131" s="12"/>
-      <c r="AD131" s="12"/>
+      <c r="AC131" s="16"/>
+      <c r="AD131" s="16"/>
       <c r="AE131" s="9">
         <v>53.892113710105299</v>
       </c>
@@ -10166,7 +13014,7 @@
       </c>
     </row>
     <row r="132" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A132" s="20"/>
+      <c r="A132" s="13"/>
       <c r="B132" t="s">
         <v>38</v>
       </c>
@@ -10185,11 +13033,11 @@
       <c r="G132" s="2">
         <v>111.067689350116</v>
       </c>
-      <c r="AB132" s="12" t="s">
+      <c r="AB132" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AC132" s="12"/>
-      <c r="AD132" s="12"/>
+      <c r="AC132" s="16"/>
+      <c r="AD132" s="16"/>
       <c r="AE132" s="9">
         <v>86.263981071512504</v>
       </c>
@@ -10207,7 +13055,7 @@
       </c>
     </row>
     <row r="133" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A133" s="20"/>
+      <c r="A133" s="13"/>
       <c r="B133" t="s">
         <v>39</v>
       </c>
@@ -10226,10 +13074,10 @@
       <c r="G133" s="2">
         <v>13.092158018867901</v>
       </c>
-      <c r="AB133" s="14" t="s">
+      <c r="AB133" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AC133" s="15"/>
+      <c r="AC133" s="18"/>
       <c r="AD133" s="8" t="s">
         <v>9</v>
       </c>
@@ -10250,7 +13098,7 @@
       </c>
     </row>
     <row r="134" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A134" s="20"/>
+      <c r="A134" s="13"/>
       <c r="B134" t="s">
         <v>40</v>
       </c>
@@ -10269,8 +13117,8 @@
       <c r="G134" s="2">
         <v>82.783749999999998</v>
       </c>
-      <c r="AB134" s="16"/>
-      <c r="AC134" s="17"/>
+      <c r="AB134" s="19"/>
+      <c r="AC134" s="20"/>
       <c r="AD134" s="8" t="s">
         <v>10</v>
       </c>
@@ -10291,7 +13139,7 @@
       </c>
     </row>
     <row r="135" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A135" s="20"/>
+      <c r="A135" s="13"/>
       <c r="B135" t="s">
         <v>41</v>
       </c>
@@ -10310,8 +13158,8 @@
       <c r="G135" s="2">
         <v>114.17227777777801</v>
       </c>
-      <c r="AB135" s="16"/>
-      <c r="AC135" s="17"/>
+      <c r="AB135" s="19"/>
+      <c r="AC135" s="20"/>
       <c r="AD135" s="8" t="s">
         <v>11</v>
       </c>
@@ -10332,8 +13180,8 @@
       </c>
     </row>
     <row r="136" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AB136" s="16"/>
-      <c r="AC136" s="17"/>
+      <c r="AB136" s="19"/>
+      <c r="AC136" s="20"/>
       <c r="AD136" s="8" t="s">
         <v>12</v>
       </c>
@@ -10354,8 +13202,8 @@
       </c>
     </row>
     <row r="137" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AB137" s="18"/>
-      <c r="AC137" s="19"/>
+      <c r="AB137" s="21"/>
+      <c r="AC137" s="22"/>
       <c r="AD137" s="8" t="s">
         <v>13</v>
       </c>
@@ -10376,52 +13224,52 @@
       </c>
     </row>
     <row r="150" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="C150" s="13" t="s">
+      <c r="C150" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="13"/>
-      <c r="H150" s="13"/>
-      <c r="I150" s="13"/>
-      <c r="J150" s="13"/>
-      <c r="K150" s="13" t="s">
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L150" s="13"/>
-      <c r="M150" s="13"/>
-      <c r="N150" s="13"/>
-      <c r="O150" s="13"/>
-      <c r="P150" s="13"/>
-      <c r="Q150" s="13"/>
-      <c r="R150" s="13"/>
+      <c r="L150" s="12"/>
+      <c r="M150" s="12"/>
+      <c r="N150" s="12"/>
+      <c r="O150" s="12"/>
+      <c r="P150" s="12"/>
+      <c r="Q150" s="12"/>
+      <c r="R150" s="12"/>
     </row>
     <row r="151" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="C151" s="13">
+      <c r="C151" s="12">
         <v>10</v>
       </c>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="13">
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12">
         <v>20</v>
       </c>
-      <c r="H151" s="13"/>
-      <c r="I151" s="13"/>
-      <c r="J151" s="13"/>
-      <c r="K151" s="13">
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12">
         <v>10</v>
       </c>
-      <c r="L151" s="13"/>
-      <c r="M151" s="13"/>
-      <c r="N151" s="13"/>
-      <c r="O151" s="13">
+      <c r="L151" s="12"/>
+      <c r="M151" s="12"/>
+      <c r="N151" s="12"/>
+      <c r="O151" s="12">
         <v>20</v>
       </c>
-      <c r="P151" s="13"/>
-      <c r="Q151" s="13"/>
-      <c r="R151" s="13"/>
+      <c r="P151" s="12"/>
+      <c r="Q151" s="12"/>
+      <c r="R151" s="12"/>
     </row>
     <row r="152" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C152" s="4" t="s">
@@ -10472,18 +13320,18 @@
       <c r="R152" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AB152" s="12" t="s">
+      <c r="AB152" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AC152" s="12"/>
-      <c r="AD152" s="12"/>
-      <c r="AE152" s="13" t="s">
+      <c r="AC152" s="16"/>
+      <c r="AD152" s="16"/>
+      <c r="AE152" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AF152" s="13"/>
-      <c r="AG152" s="13"/>
-      <c r="AH152" s="13"/>
-      <c r="AI152" s="13"/>
+      <c r="AF152" s="12"/>
+      <c r="AG152" s="12"/>
+      <c r="AH152" s="12"/>
+      <c r="AI152" s="12"/>
     </row>
     <row r="153" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
@@ -10614,10 +13462,10 @@
       <c r="R154" s="2">
         <v>37.505075722649003</v>
       </c>
-      <c r="AB154" s="12" t="s">
+      <c r="AB154" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="AC154" s="12">
+      <c r="AC154" s="16">
         <v>10</v>
       </c>
       <c r="AD154" s="10" t="s">
@@ -10691,8 +13539,8 @@
       <c r="R155" s="2">
         <v>183.34579284788501</v>
       </c>
-      <c r="AB155" s="12"/>
-      <c r="AC155" s="12"/>
+      <c r="AB155" s="16"/>
+      <c r="AC155" s="16"/>
       <c r="AD155" s="10" t="s">
         <v>26</v>
       </c>
@@ -10764,8 +13612,8 @@
       <c r="R156" s="2">
         <v>36.468353934881101</v>
       </c>
-      <c r="AB156" s="12"/>
-      <c r="AC156" s="12"/>
+      <c r="AB156" s="16"/>
+      <c r="AC156" s="16"/>
       <c r="AD156" s="10" t="s">
         <v>9</v>
       </c>
@@ -10837,8 +13685,8 @@
       <c r="R157" s="2">
         <v>81.619310141509402</v>
       </c>
-      <c r="AB157" s="12"/>
-      <c r="AC157" s="12"/>
+      <c r="AB157" s="16"/>
+      <c r="AC157" s="16"/>
       <c r="AD157" s="10" t="s">
         <v>10</v>
       </c>
@@ -10910,8 +13758,8 @@
       <c r="R158" s="2">
         <v>71.377343749999994</v>
       </c>
-      <c r="AB158" s="12"/>
-      <c r="AC158" s="12">
+      <c r="AB158" s="16"/>
+      <c r="AC158" s="16">
         <v>20</v>
       </c>
       <c r="AD158" s="10" t="s">
@@ -10985,8 +13833,8 @@
       <c r="R159" s="2">
         <v>108.278388888889</v>
       </c>
-      <c r="AB159" s="12"/>
-      <c r="AC159" s="12"/>
+      <c r="AB159" s="16"/>
+      <c r="AC159" s="16"/>
       <c r="AD159" s="10" t="s">
         <v>26</v>
       </c>
@@ -11007,8 +13855,8 @@
       </c>
     </row>
     <row r="160" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="AB160" s="12"/>
-      <c r="AC160" s="12"/>
+      <c r="AB160" s="16"/>
+      <c r="AC160" s="16"/>
       <c r="AD160" s="10" t="s">
         <v>9</v>
       </c>
@@ -11029,8 +13877,8 @@
       </c>
     </row>
     <row r="161" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="AB161" s="12"/>
-      <c r="AC161" s="12"/>
+      <c r="AB161" s="16"/>
+      <c r="AC161" s="16"/>
       <c r="AD161" s="10" t="s">
         <v>10</v>
       </c>
@@ -11051,10 +13899,10 @@
       </c>
     </row>
     <row r="162" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="AB162" s="12" t="s">
+      <c r="AB162" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AC162" s="12">
+      <c r="AC162" s="16">
         <v>10</v>
       </c>
       <c r="AD162" s="10" t="s">
@@ -11077,8 +13925,8 @@
       </c>
     </row>
     <row r="163" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="AB163" s="12"/>
-      <c r="AC163" s="12"/>
+      <c r="AB163" s="16"/>
+      <c r="AC163" s="16"/>
       <c r="AD163" s="10" t="s">
         <v>26</v>
       </c>
@@ -11099,8 +13947,8 @@
       </c>
     </row>
     <row r="164" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="AB164" s="12"/>
-      <c r="AC164" s="12"/>
+      <c r="AB164" s="16"/>
+      <c r="AC164" s="16"/>
       <c r="AD164" s="10" t="s">
         <v>9</v>
       </c>
@@ -11121,8 +13969,8 @@
       </c>
     </row>
     <row r="165" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="AB165" s="12"/>
-      <c r="AC165" s="12"/>
+      <c r="AB165" s="16"/>
+      <c r="AC165" s="16"/>
       <c r="AD165" s="10" t="s">
         <v>10</v>
       </c>
@@ -11164,8 +14012,8 @@
       <c r="K166" t="s">
         <v>41</v>
       </c>
-      <c r="AB166" s="12"/>
-      <c r="AC166" s="12">
+      <c r="AB166" s="16"/>
+      <c r="AC166" s="16">
         <v>20</v>
       </c>
       <c r="AD166" s="10" t="s">
@@ -11188,14 +14036,14 @@
       </c>
     </row>
     <row r="167" spans="2:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="B167" s="13" t="s">
+      <c r="B167" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C167" s="13" t="s">
-        <v>44</v>
+      <c r="C167" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E167" s="2">
         <v>48.2812002540036</v>
@@ -11218,8 +14066,8 @@
       <c r="K167" s="2">
         <v>117.100388888889</v>
       </c>
-      <c r="AB167" s="12"/>
-      <c r="AC167" s="12"/>
+      <c r="AB167" s="16"/>
+      <c r="AC167" s="16"/>
       <c r="AD167" s="10" t="s">
         <v>26</v>
       </c>
@@ -11240,10 +14088,10 @@
       </c>
     </row>
     <row r="168" spans="2:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="B168" s="13"/>
-      <c r="C168" s="13"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
       <c r="D168" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E168" s="2">
         <v>47.241625275098102</v>
@@ -11266,8 +14114,8 @@
       <c r="K168" s="2">
         <v>116.155611111111</v>
       </c>
-      <c r="AB168" s="12"/>
-      <c r="AC168" s="12"/>
+      <c r="AB168" s="16"/>
+      <c r="AC168" s="16"/>
       <c r="AD168" s="10" t="s">
         <v>9</v>
       </c>
@@ -11288,10 +14136,10 @@
       </c>
     </row>
     <row r="169" spans="2:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="B169" s="13"/>
-      <c r="C169" s="13"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
       <c r="D169" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E169" s="2">
         <v>46.245004740820598</v>
@@ -11314,8 +14162,8 @@
       <c r="K169" s="2">
         <v>113.487277777778</v>
       </c>
-      <c r="AB169" s="12"/>
-      <c r="AC169" s="12"/>
+      <c r="AB169" s="16"/>
+      <c r="AC169" s="16"/>
       <c r="AD169" s="10" t="s">
         <v>10</v>
       </c>
@@ -11336,10 +14184,10 @@
       </c>
     </row>
     <row r="170" spans="2:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="B170" s="13"/>
-      <c r="C170" s="13"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
       <c r="D170" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E170" s="2">
         <v>43.188145338772998</v>
@@ -11364,12 +14212,12 @@
       </c>
     </row>
     <row r="171" spans="2:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="B171" s="13"/>
-      <c r="C171" s="13" t="s">
-        <v>45</v>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E171" s="2">
         <v>59.027670734783698</v>
@@ -11394,10 +14242,10 @@
       </c>
     </row>
     <row r="172" spans="2:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="B172" s="13"/>
-      <c r="C172" s="13"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
       <c r="D172" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E172" s="2">
         <v>56.887142372497998</v>
@@ -11422,10 +14270,10 @@
       </c>
     </row>
     <row r="173" spans="2:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="B173" s="13"/>
-      <c r="C173" s="13"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
       <c r="D173" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E173" s="2">
         <v>54.1390191285589</v>
@@ -11440,7 +14288,7 @@
         <v>42.154820414234599</v>
       </c>
       <c r="I173" s="2">
-        <v>0</v>
+        <v>70.76953125</v>
       </c>
       <c r="J173" s="2">
         <v>50.693307291666699</v>
@@ -11450,10 +14298,10 @@
       </c>
     </row>
     <row r="174" spans="2:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="B174" s="13"/>
-      <c r="C174" s="13"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="12"/>
       <c r="D174" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E174" s="2">
         <v>47.451634930714398</v>
@@ -11478,14 +14326,14 @@
       </c>
     </row>
     <row r="175" spans="2:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="B175" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C175" s="13" t="s">
+      <c r="B175" s="12" t="s">
         <v>44</v>
       </c>
+      <c r="C175" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="D175" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E175" s="2">
         <v>48.2919910576814</v>
@@ -11510,10 +14358,10 @@
       </c>
     </row>
     <row r="176" spans="2:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="B176" s="13"/>
-      <c r="C176" s="13"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="12"/>
       <c r="D176" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E176" s="2">
         <v>47.199279743212799</v>
@@ -11538,10 +14386,10 @@
       </c>
     </row>
     <row r="177" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="B177" s="13"/>
-      <c r="C177" s="13"/>
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
       <c r="D177" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E177" s="2">
         <v>46.227776859575997</v>
@@ -11566,10 +14414,10 @@
       </c>
     </row>
     <row r="178" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="B178" s="13"/>
-      <c r="C178" s="13"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="12"/>
       <c r="D178" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E178" s="2">
         <v>43.186792682608598</v>
@@ -11594,12 +14442,12 @@
       </c>
     </row>
     <row r="179" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="B179" s="13"/>
-      <c r="C179" s="13" t="s">
-        <v>45</v>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E179" s="2">
         <v>59.157508329056498</v>
@@ -11624,10 +14472,10 @@
       </c>
     </row>
     <row r="180" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="B180" s="13"/>
-      <c r="C180" s="13"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="12"/>
       <c r="D180" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E180" s="2">
         <v>56.872750284884198</v>
@@ -11652,10 +14500,10 @@
       </c>
     </row>
     <row r="181" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="B181" s="13"/>
-      <c r="C181" s="13"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
       <c r="D181" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E181" s="2">
         <v>54.099709461634198</v>
@@ -11670,7 +14518,7 @@
         <v>42.147330787498198</v>
       </c>
       <c r="I181" s="2">
-        <v>70.76953125</v>
+        <v>70.773565779999998</v>
       </c>
       <c r="J181" s="2">
         <v>50.930247395833298</v>
@@ -11680,10 +14528,10 @@
       </c>
     </row>
     <row r="182" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="B182" s="13"/>
-      <c r="C182" s="13"/>
+      <c r="B182" s="12"/>
+      <c r="C182" s="12"/>
       <c r="D182" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E182" s="2">
         <v>47.679346549639398</v>
@@ -11707,38 +14555,614 @@
         <v>108.278388888889</v>
       </c>
     </row>
+    <row r="210" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="S210" s="24"/>
+      <c r="T210" s="24"/>
+      <c r="U210" s="24"/>
+      <c r="V210" s="25"/>
+    </row>
+    <row r="211" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N211" s="30"/>
+      <c r="O211" s="30"/>
+      <c r="P211" s="30"/>
+      <c r="Q211" s="30"/>
+      <c r="R211" s="26"/>
+      <c r="S211" s="27"/>
+      <c r="T211" s="27"/>
+      <c r="U211" s="27"/>
+      <c r="V211" s="28"/>
+    </row>
+    <row r="212" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N212" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O212" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="P212" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q212" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="R212" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="S212" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T212" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U212" s="2"/>
+      <c r="V212" s="2"/>
+    </row>
+    <row r="213" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N213" t="s">
+        <v>35</v>
+      </c>
+      <c r="O213" s="6">
+        <v>85.9989474508303</v>
+      </c>
+      <c r="P213" s="6">
+        <v>53.892113710105299</v>
+      </c>
+      <c r="Q213" s="6">
+        <v>86.263981071512504</v>
+      </c>
+      <c r="R213" s="6">
+        <v>64.549156655851206</v>
+      </c>
+      <c r="S213" s="2">
+        <v>43.188145338772998</v>
+      </c>
+      <c r="T213" s="2">
+        <v>43.186792682608598</v>
+      </c>
+    </row>
+    <row r="214" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N214" t="s">
+        <v>36</v>
+      </c>
+      <c r="O214" s="2">
+        <v>38.393422872502398</v>
+      </c>
+      <c r="P214" s="2">
+        <v>13.1535982393723</v>
+      </c>
+      <c r="Q214" s="2">
+        <v>25.1932602058125</v>
+      </c>
+      <c r="R214" s="2">
+        <v>29.543028384032599</v>
+      </c>
+      <c r="S214" s="2">
+        <v>37.526083212275701</v>
+      </c>
+      <c r="T214" s="2">
+        <v>37.505075722649003</v>
+      </c>
+    </row>
+    <row r="215" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N215" t="s">
+        <v>37</v>
+      </c>
+      <c r="O215" s="2">
+        <v>198.54944371471601</v>
+      </c>
+      <c r="P215" s="2">
+        <v>201.54178446228701</v>
+      </c>
+      <c r="Q215" s="2">
+        <v>181.01076035804101</v>
+      </c>
+      <c r="R215" s="2">
+        <v>151.619960159709</v>
+      </c>
+      <c r="S215" s="2">
+        <v>183.35071634234799</v>
+      </c>
+      <c r="T215" s="2">
+        <v>183.34579284788501</v>
+      </c>
+    </row>
+    <row r="216" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N216" t="s">
+        <v>38</v>
+      </c>
+      <c r="O216" s="2">
+        <v>62.8719152045512</v>
+      </c>
+      <c r="P216" s="2">
+        <v>32.724114684365702</v>
+      </c>
+      <c r="Q216" s="2">
+        <v>63.4836854878696</v>
+      </c>
+      <c r="R216" s="2">
+        <v>21.694773788916098</v>
+      </c>
+      <c r="S216" s="2">
+        <v>34.174657921519803</v>
+      </c>
+      <c r="T216" s="2">
+        <v>34.360867787646001</v>
+      </c>
+    </row>
+    <row r="217" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N217" t="s">
+        <v>39</v>
+      </c>
+      <c r="O217" s="2">
+        <v>37.753714622641503</v>
+      </c>
+      <c r="P217" s="2">
+        <v>36.534389740565999</v>
+      </c>
+      <c r="Q217" s="2">
+        <v>29.11328125</v>
+      </c>
+      <c r="R217" s="2">
+        <v>13.092158018867901</v>
+      </c>
+      <c r="S217" s="2">
+        <v>70.76953125</v>
+      </c>
+      <c r="T217" s="2">
+        <v>70.773565779999998</v>
+      </c>
+    </row>
+    <row r="218" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N218" t="s">
+        <v>40</v>
+      </c>
+      <c r="O218" s="2">
+        <v>56.498554687499997</v>
+      </c>
+      <c r="P218" s="2">
+        <v>52.789596354166697</v>
+      </c>
+      <c r="Q218" s="2">
+        <v>55.6217447916667</v>
+      </c>
+      <c r="R218" s="2">
+        <v>71.376106770833303</v>
+      </c>
+      <c r="S218" s="2">
+        <v>47.315195312500002</v>
+      </c>
+      <c r="T218" s="2">
+        <v>47.859283854166698</v>
+      </c>
+    </row>
+    <row r="219" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N219" t="s">
+        <v>41</v>
+      </c>
+      <c r="O219" s="2">
+        <v>105.04234722222201</v>
+      </c>
+      <c r="P219" s="2">
+        <v>24.915791666666699</v>
+      </c>
+      <c r="Q219" s="2">
+        <v>33.341111111111097</v>
+      </c>
+      <c r="R219" s="2">
+        <v>67.848944444444399</v>
+      </c>
+      <c r="S219" s="2">
+        <v>84.560569444444397</v>
+      </c>
+      <c r="T219" s="2">
+        <v>84.545694444444507</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B227" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C227" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D227" s="34"/>
+      <c r="E227" s="34"/>
+      <c r="F227" s="34"/>
+      <c r="G227" s="34"/>
+      <c r="H227" s="34"/>
+      <c r="I227" s="34"/>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B228" s="34"/>
+      <c r="C228" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D228" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E228" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F228" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G228" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H228" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I228" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B229" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C229" s="37">
+        <v>85.9989474508303</v>
+      </c>
+      <c r="D229" s="37">
+        <v>38.393422872502398</v>
+      </c>
+      <c r="E229" s="37">
+        <v>198.54944371471601</v>
+      </c>
+      <c r="F229" s="37">
+        <v>62.8719152045512</v>
+      </c>
+      <c r="G229" s="37">
+        <v>37.753714622641503</v>
+      </c>
+      <c r="H229" s="37">
+        <v>56.498554687499997</v>
+      </c>
+      <c r="I229" s="37">
+        <v>105.04234722222201</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B230" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C230" s="37">
+        <v>53.892113710105299</v>
+      </c>
+      <c r="D230" s="37">
+        <v>13.1535982393723</v>
+      </c>
+      <c r="E230" s="37">
+        <v>201.54178446228701</v>
+      </c>
+      <c r="F230" s="37">
+        <v>32.724114684365702</v>
+      </c>
+      <c r="G230" s="37">
+        <v>36.534389740565999</v>
+      </c>
+      <c r="H230" s="37">
+        <v>52.789596354166697</v>
+      </c>
+      <c r="I230" s="37">
+        <v>24.915791666666699</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B231" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C231" s="37">
+        <v>86.263981071512504</v>
+      </c>
+      <c r="D231" s="37">
+        <v>25.1932602058125</v>
+      </c>
+      <c r="E231" s="37">
+        <v>181.01076035804101</v>
+      </c>
+      <c r="F231" s="37">
+        <v>63.4836854878696</v>
+      </c>
+      <c r="G231" s="37">
+        <v>29.11328125</v>
+      </c>
+      <c r="H231" s="37">
+        <v>55.6217447916667</v>
+      </c>
+      <c r="I231" s="37">
+        <v>33.341111111111097</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B232" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C232" s="37">
+        <v>64.549156655851206</v>
+      </c>
+      <c r="D232" s="37">
+        <v>29.543028384032599</v>
+      </c>
+      <c r="E232" s="37">
+        <v>151.619960159709</v>
+      </c>
+      <c r="F232" s="37">
+        <v>21.694773788916098</v>
+      </c>
+      <c r="G232" s="37">
+        <v>13.092158018867901</v>
+      </c>
+      <c r="H232" s="37">
+        <v>71.376106770833303</v>
+      </c>
+      <c r="I232" s="37">
+        <v>67.848944444444399</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B233" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C233" s="37">
+        <v>43.188145338772998</v>
+      </c>
+      <c r="D233" s="37">
+        <v>37.526083212275701</v>
+      </c>
+      <c r="E233" s="37">
+        <v>183.35071634234799</v>
+      </c>
+      <c r="F233" s="37">
+        <v>34.174657921519803</v>
+      </c>
+      <c r="G233" s="37">
+        <v>70.76953125</v>
+      </c>
+      <c r="H233" s="37">
+        <v>47.315195312500002</v>
+      </c>
+      <c r="I233" s="37">
+        <v>84.560569444444397</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B234" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C234" s="37">
+        <v>43.186792682608598</v>
+      </c>
+      <c r="D234" s="37">
+        <v>37.505075722649003</v>
+      </c>
+      <c r="E234" s="37">
+        <v>183.34579284788501</v>
+      </c>
+      <c r="F234" s="37">
+        <v>34.360867787646001</v>
+      </c>
+      <c r="G234" s="37">
+        <v>70.773565779999998</v>
+      </c>
+      <c r="H234" s="37">
+        <v>47.859283854166698</v>
+      </c>
+      <c r="I234" s="37">
+        <v>84.545694444444507</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C237" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D237" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="48"/>
+      <c r="F237" s="48"/>
+      <c r="G237" s="48"/>
+      <c r="H237" s="48"/>
+      <c r="I237" s="49"/>
+    </row>
+    <row r="238" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B238" s="39"/>
+      <c r="C238" s="46"/>
+      <c r="D238" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E238" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F238" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G238" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="H238" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I238" s="43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B239" s="40"/>
+      <c r="C239" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D239" s="37">
+        <v>85.9989474508303</v>
+      </c>
+      <c r="E239" s="37">
+        <v>53.892113710105299</v>
+      </c>
+      <c r="F239" s="37">
+        <v>86.263981071512504</v>
+      </c>
+      <c r="G239" s="37">
+        <v>64.549156655851206</v>
+      </c>
+      <c r="H239" s="37">
+        <v>43.188145338772998</v>
+      </c>
+      <c r="I239" s="37">
+        <v>43.186792682608598</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B240" s="41"/>
+      <c r="C240" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D240" s="37">
+        <v>38.393422872502398</v>
+      </c>
+      <c r="E240" s="37">
+        <v>13.1535982393723</v>
+      </c>
+      <c r="F240" s="37">
+        <v>25.1932602058125</v>
+      </c>
+      <c r="G240" s="37">
+        <v>29.543028384032599</v>
+      </c>
+      <c r="H240" s="37">
+        <v>37.526083212275701</v>
+      </c>
+      <c r="I240" s="37">
+        <v>37.505075722649003</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B241" s="41"/>
+      <c r="C241" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D241" s="37">
+        <v>198.54944371471601</v>
+      </c>
+      <c r="E241" s="37">
+        <v>201.54178446228701</v>
+      </c>
+      <c r="F241" s="37">
+        <v>181.01076035804101</v>
+      </c>
+      <c r="G241" s="37">
+        <v>151.619960159709</v>
+      </c>
+      <c r="H241" s="37">
+        <v>183.35071634234799</v>
+      </c>
+      <c r="I241" s="37">
+        <v>183.34579284788501</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B242" s="41"/>
+      <c r="C242" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D242" s="37">
+        <v>62.8719152045512</v>
+      </c>
+      <c r="E242" s="37">
+        <v>32.724114684365702</v>
+      </c>
+      <c r="F242" s="37">
+        <v>63.4836854878696</v>
+      </c>
+      <c r="G242" s="37">
+        <v>21.694773788916098</v>
+      </c>
+      <c r="H242" s="37">
+        <v>34.174657921519803</v>
+      </c>
+      <c r="I242" s="37">
+        <v>34.360867787646001</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B243" s="41"/>
+      <c r="C243" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D243" s="37">
+        <v>37.753714622641503</v>
+      </c>
+      <c r="E243" s="37">
+        <v>36.534389740565999</v>
+      </c>
+      <c r="F243" s="37">
+        <v>29.11328125</v>
+      </c>
+      <c r="G243" s="37">
+        <v>13.092158018867901</v>
+      </c>
+      <c r="H243" s="37">
+        <v>70.76953125</v>
+      </c>
+      <c r="I243" s="37">
+        <v>70.773565779999998</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B244" s="41"/>
+      <c r="C244" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D244" s="37">
+        <v>56.498554687499997</v>
+      </c>
+      <c r="E244" s="37">
+        <v>52.789596354166697</v>
+      </c>
+      <c r="F244" s="37">
+        <v>55.6217447916667</v>
+      </c>
+      <c r="G244" s="37">
+        <v>71.376106770833303</v>
+      </c>
+      <c r="H244" s="37">
+        <v>47.315195312500002</v>
+      </c>
+      <c r="I244" s="37">
+        <v>47.859283854166698</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B245" s="42"/>
+      <c r="C245" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D245" s="37">
+        <v>105.04234722222201</v>
+      </c>
+      <c r="E245" s="37">
+        <v>24.915791666666699</v>
+      </c>
+      <c r="F245" s="37">
+        <v>33.341111111111097</v>
+      </c>
+      <c r="G245" s="37">
+        <v>67.848944444444399</v>
+      </c>
+      <c r="H245" s="37">
+        <v>84.560569444444397</v>
+      </c>
+      <c r="I245" s="37">
+        <v>84.545694444444507</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B167:B174"/>
-    <mergeCell ref="C167:C170"/>
-    <mergeCell ref="C171:C174"/>
-    <mergeCell ref="B175:B182"/>
-    <mergeCell ref="C175:C178"/>
-    <mergeCell ref="C179:C182"/>
-    <mergeCell ref="A129:A135"/>
-    <mergeCell ref="C127:G127"/>
-    <mergeCell ref="C150:J150"/>
-    <mergeCell ref="K150:R150"/>
-    <mergeCell ref="C151:F151"/>
-    <mergeCell ref="G151:J151"/>
-    <mergeCell ref="K151:N151"/>
-    <mergeCell ref="O151:R151"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="K110:R110"/>
-    <mergeCell ref="K111:N111"/>
-    <mergeCell ref="O111:R111"/>
-    <mergeCell ref="S111:V111"/>
-    <mergeCell ref="W111:Z111"/>
-    <mergeCell ref="S110:Z110"/>
-    <mergeCell ref="F110:J111"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="B110:B112"/>
+  <mergeCells count="50">
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="D237:I237"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:I227"/>
     <mergeCell ref="AB162:AB169"/>
     <mergeCell ref="AC162:AC165"/>
     <mergeCell ref="AC166:AC169"/>
@@ -11753,9 +15177,39 @@
     <mergeCell ref="AC158:AC161"/>
     <mergeCell ref="AB130:AD130"/>
     <mergeCell ref="AB131:AD131"/>
+    <mergeCell ref="F110:J111"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="K110:R110"/>
+    <mergeCell ref="K111:N111"/>
+    <mergeCell ref="O111:R111"/>
+    <mergeCell ref="S111:V111"/>
+    <mergeCell ref="W111:Z111"/>
+    <mergeCell ref="S110:Z110"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A129:A135"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="C150:J150"/>
+    <mergeCell ref="K150:R150"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="G151:J151"/>
+    <mergeCell ref="K151:N151"/>
+    <mergeCell ref="O151:R151"/>
+    <mergeCell ref="B167:B174"/>
+    <mergeCell ref="C167:C170"/>
+    <mergeCell ref="C171:C174"/>
+    <mergeCell ref="B175:B182"/>
+    <mergeCell ref="C175:C178"/>
+    <mergeCell ref="C179:C182"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:J2">
-    <cfRule type="colorScale" priority="327">
+    <cfRule type="colorScale" priority="379">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11765,10 +15219,516 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="141" priority="329" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="140" priority="344" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="99" priority="381" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="98" priority="396" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:J3">
+    <cfRule type="colorScale" priority="380">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:J4">
+    <cfRule type="colorScale" priority="378">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:J5">
+    <cfRule type="colorScale" priority="377">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:J6">
+    <cfRule type="colorScale" priority="376">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:S3">
+    <cfRule type="colorScale" priority="375">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:S4">
+    <cfRule type="colorScale" priority="374">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:S5">
+    <cfRule type="colorScale" priority="373">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:S6">
+    <cfRule type="colorScale" priority="372">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:R8">
+    <cfRule type="colorScale" priority="368">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:S2">
+    <cfRule type="colorScale" priority="361">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="97" priority="362" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="96" priority="363" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:J10">
+    <cfRule type="colorScale" priority="360">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:J11">
+    <cfRule type="colorScale" priority="359">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:J12">
+    <cfRule type="colorScale" priority="358">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:J13">
+    <cfRule type="colorScale" priority="357">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:J17">
+    <cfRule type="colorScale" priority="356">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:J18">
+    <cfRule type="colorScale" priority="355">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:J19">
+    <cfRule type="colorScale" priority="354">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:J20">
+    <cfRule type="colorScale" priority="353">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:S17">
+    <cfRule type="colorScale" priority="352">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:S18">
+    <cfRule type="colorScale" priority="351">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19:S19">
+    <cfRule type="colorScale" priority="350">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20:S20">
+    <cfRule type="colorScale" priority="349">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J24">
+    <cfRule type="colorScale" priority="348">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:J25">
+    <cfRule type="colorScale" priority="347">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:J26">
+    <cfRule type="colorScale" priority="346">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:J27">
+    <cfRule type="colorScale" priority="345">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:S24">
+    <cfRule type="colorScale" priority="344">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:S25">
+    <cfRule type="colorScale" priority="343">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26:S26">
+    <cfRule type="colorScale" priority="342">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:S27">
+    <cfRule type="colorScale" priority="341">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:J31">
+    <cfRule type="colorScale" priority="340">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:J32">
+    <cfRule type="colorScale" priority="339">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:J33">
+    <cfRule type="colorScale" priority="338">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:J34">
+    <cfRule type="colorScale" priority="337">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31:S31">
+    <cfRule type="colorScale" priority="336">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32:S32">
+    <cfRule type="colorScale" priority="335">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33:S33">
+    <cfRule type="colorScale" priority="334">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34:S34">
+    <cfRule type="colorScale" priority="333">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:J38">
+    <cfRule type="colorScale" priority="332">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:J39">
+    <cfRule type="colorScale" priority="331">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:J40">
+    <cfRule type="colorScale" priority="330">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:J41">
+    <cfRule type="colorScale" priority="329">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L38:S38">
     <cfRule type="colorScale" priority="328">
       <colorScale>
         <cfvo type="min"/>
@@ -11780,7 +15740,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:J4">
+  <conditionalFormatting sqref="L39:S39">
+    <cfRule type="colorScale" priority="327">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40:S40">
     <cfRule type="colorScale" priority="326">
       <colorScale>
         <cfvo type="min"/>
@@ -11792,7 +15764,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:J5">
+  <conditionalFormatting sqref="L41:S41">
     <cfRule type="colorScale" priority="325">
       <colorScale>
         <cfvo type="min"/>
@@ -11804,7 +15776,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:J6">
+  <conditionalFormatting sqref="C45:J45">
     <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="min"/>
@@ -11816,7 +15788,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:S3">
+  <conditionalFormatting sqref="C46:J46">
     <cfRule type="colorScale" priority="323">
       <colorScale>
         <cfvo type="min"/>
@@ -11828,7 +15800,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:S4">
+  <conditionalFormatting sqref="C47:J47">
     <cfRule type="colorScale" priority="322">
       <colorScale>
         <cfvo type="min"/>
@@ -11840,7 +15812,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:S5">
+  <conditionalFormatting sqref="C48:J48">
     <cfRule type="colorScale" priority="321">
       <colorScale>
         <cfvo type="min"/>
@@ -11852,7 +15824,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:S6">
+  <conditionalFormatting sqref="L45:S45">
     <cfRule type="colorScale" priority="320">
       <colorScale>
         <cfvo type="min"/>
@@ -11864,8 +15836,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:R8">
-    <cfRule type="colorScale" priority="316">
+  <conditionalFormatting sqref="L46:S46">
+    <cfRule type="colorScale" priority="319">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11876,22 +15848,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:S2">
-    <cfRule type="colorScale" priority="309">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="139" priority="310" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="138" priority="311" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:J10">
-    <cfRule type="colorScale" priority="308">
+  <conditionalFormatting sqref="L47:S47">
+    <cfRule type="colorScale" priority="318">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11902,8 +15860,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:J11">
-    <cfRule type="colorScale" priority="307">
+  <conditionalFormatting sqref="L48:S48">
+    <cfRule type="colorScale" priority="317">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11914,283 +15872,161 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:J12">
-    <cfRule type="colorScale" priority="306">
+  <conditionalFormatting sqref="C9:J9">
+    <cfRule type="colorScale" priority="314">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="top10" dxfId="95" priority="315" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="94" priority="316" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:J13">
+  <conditionalFormatting sqref="C16:J16">
+    <cfRule type="colorScale" priority="311">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="93" priority="312" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="92" priority="313" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:S16">
+    <cfRule type="colorScale" priority="308">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="91" priority="309" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="90" priority="310" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:J23">
     <cfRule type="colorScale" priority="305">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="top10" dxfId="89" priority="306" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="88" priority="307" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:J17">
-    <cfRule type="colorScale" priority="304">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:J18">
-    <cfRule type="colorScale" priority="303">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:J19">
+  <conditionalFormatting sqref="L23:S23">
     <cfRule type="colorScale" priority="302">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="top10" dxfId="87" priority="303" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="86" priority="304" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:J20">
-    <cfRule type="colorScale" priority="301">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17:S17">
-    <cfRule type="colorScale" priority="300">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18:S18">
+  <conditionalFormatting sqref="C30:J30">
     <cfRule type="colorScale" priority="299">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="top10" dxfId="85" priority="300" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="84" priority="301" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19:S19">
-    <cfRule type="colorScale" priority="298">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20:S20">
-    <cfRule type="colorScale" priority="297">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:J24">
+  <conditionalFormatting sqref="L30:S30">
     <cfRule type="colorScale" priority="296">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="top10" dxfId="83" priority="297" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="82" priority="298" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:J25">
-    <cfRule type="colorScale" priority="295">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:J26">
-    <cfRule type="colorScale" priority="294">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:J27">
+  <conditionalFormatting sqref="C37:J37">
     <cfRule type="colorScale" priority="293">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="top10" dxfId="81" priority="294" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="80" priority="295" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24:S24">
-    <cfRule type="colorScale" priority="292">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25:S25">
-    <cfRule type="colorScale" priority="291">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L26:S26">
+  <conditionalFormatting sqref="L37:S37">
     <cfRule type="colorScale" priority="290">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="top10" dxfId="79" priority="291" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="78" priority="292" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27:S27">
-    <cfRule type="colorScale" priority="289">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:J31">
-    <cfRule type="colorScale" priority="288">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32:J32">
+  <conditionalFormatting sqref="C44:J44">
     <cfRule type="colorScale" priority="287">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="top10" dxfId="77" priority="288" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="76" priority="289" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:J33">
-    <cfRule type="colorScale" priority="286">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:J34">
-    <cfRule type="colorScale" priority="285">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L31:S31">
+  <conditionalFormatting sqref="L44:S44">
     <cfRule type="colorScale" priority="284">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="top10" dxfId="75" priority="285" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="74" priority="286" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32:S32">
+  <conditionalFormatting sqref="F54:J54">
     <cfRule type="colorScale" priority="283">
       <colorScale>
         <cfvo type="min"/>
@@ -12202,7 +16038,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L33:S33">
+  <conditionalFormatting sqref="F55:J55">
     <cfRule type="colorScale" priority="282">
       <colorScale>
         <cfvo type="min"/>
@@ -12214,7 +16050,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34:S34">
+  <conditionalFormatting sqref="F56:J56">
     <cfRule type="colorScale" priority="281">
       <colorScale>
         <cfvo type="min"/>
@@ -12226,7 +16062,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:J38">
+  <conditionalFormatting sqref="F57:J57">
     <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="min"/>
@@ -12238,43 +16074,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:J39">
-    <cfRule type="colorScale" priority="279">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:J40">
-    <cfRule type="colorScale" priority="278">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41:J41">
+  <conditionalFormatting sqref="F53:J53">
     <cfRule type="colorScale" priority="277">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="top10" dxfId="73" priority="278" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="72" priority="279" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L38:S38">
+  <conditionalFormatting sqref="F60:J60">
     <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="min"/>
@@ -12286,7 +16100,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L39:S39">
+  <conditionalFormatting sqref="F61:J61">
     <cfRule type="colorScale" priority="275">
       <colorScale>
         <cfvo type="min"/>
@@ -12298,7 +16112,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40:S40">
+  <conditionalFormatting sqref="F62:J62">
     <cfRule type="colorScale" priority="274">
       <colorScale>
         <cfvo type="min"/>
@@ -12310,7 +16124,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L41:S41">
+  <conditionalFormatting sqref="F63:J63">
     <cfRule type="colorScale" priority="273">
       <colorScale>
         <cfvo type="min"/>
@@ -12322,43 +16136,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45:J45">
-    <cfRule type="colorScale" priority="272">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46:J46">
-    <cfRule type="colorScale" priority="271">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47:J47">
+  <conditionalFormatting sqref="F59:J59">
     <cfRule type="colorScale" priority="270">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="top10" dxfId="71" priority="271" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="70" priority="272" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:J48">
+  <conditionalFormatting sqref="F66:J66">
     <cfRule type="colorScale" priority="269">
       <colorScale>
         <cfvo type="min"/>
@@ -12370,7 +16162,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L45:S45">
+  <conditionalFormatting sqref="F67:J67">
     <cfRule type="colorScale" priority="268">
       <colorScale>
         <cfvo type="min"/>
@@ -12382,7 +16174,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L46:S46">
+  <conditionalFormatting sqref="F68:J68">
     <cfRule type="colorScale" priority="267">
       <colorScale>
         <cfvo type="min"/>
@@ -12394,7 +16186,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L47:S47">
+  <conditionalFormatting sqref="F69:J69">
     <cfRule type="colorScale" priority="266">
       <colorScale>
         <cfvo type="min"/>
@@ -12406,8 +16198,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L48:S48">
-    <cfRule type="colorScale" priority="265">
+  <conditionalFormatting sqref="F65:J65">
+    <cfRule type="colorScale" priority="263">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="69" priority="264" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="68" priority="265" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:J72">
+    <cfRule type="colorScale" priority="262">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12418,35 +16224,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:J9">
-    <cfRule type="colorScale" priority="262">
+  <conditionalFormatting sqref="F73:J73">
+    <cfRule type="colorScale" priority="261">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="137" priority="263" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="136" priority="264" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:J16">
+  <conditionalFormatting sqref="F74:J74">
+    <cfRule type="colorScale" priority="260">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75:J75">
     <cfRule type="colorScale" priority="259">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="135" priority="260" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="134" priority="261" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16:S16">
+  <conditionalFormatting sqref="F71:J71">
     <cfRule type="colorScale" priority="256">
       <colorScale>
         <cfvo type="min"/>
@@ -12457,11 +16271,59 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="133" priority="257" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="132" priority="258" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="67" priority="257" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="66" priority="258" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:J23">
+  <conditionalFormatting sqref="F78:J78">
+    <cfRule type="colorScale" priority="255">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79:J79">
+    <cfRule type="colorScale" priority="254">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80:J80">
     <cfRule type="colorScale" priority="253">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F81:J81">
+    <cfRule type="colorScale" priority="252">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F77:J77">
+    <cfRule type="colorScale" priority="249">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12471,11 +16333,59 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="131" priority="254" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="130" priority="255" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="65" priority="250" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="64" priority="251" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L23:S23">
-    <cfRule type="colorScale" priority="250">
+  <conditionalFormatting sqref="F84:J84">
+    <cfRule type="colorScale" priority="248">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85:J85">
+    <cfRule type="colorScale" priority="247">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86:J86">
+    <cfRule type="colorScale" priority="246">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87:J87">
+    <cfRule type="colorScale" priority="245">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83:J83">
+    <cfRule type="colorScale" priority="242">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12485,66 +16395,58 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="129" priority="251" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="128" priority="252" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="63" priority="243" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="62" priority="244" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:J30">
-    <cfRule type="colorScale" priority="247">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="127" priority="248" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="126" priority="249" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L30:S30">
-    <cfRule type="colorScale" priority="244">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="125" priority="245" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="124" priority="246" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:J37">
+  <conditionalFormatting sqref="F90:J90">
     <cfRule type="colorScale" priority="241">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="123" priority="242" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="122" priority="243" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L37:S37">
+  <conditionalFormatting sqref="F91:J91">
+    <cfRule type="colorScale" priority="240">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92:J92">
+    <cfRule type="colorScale" priority="239">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F93:J93">
     <cfRule type="colorScale" priority="238">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="121" priority="239" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="120" priority="240" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44:J44">
+  <conditionalFormatting sqref="F89:J89">
     <cfRule type="colorScale" priority="235">
       <colorScale>
         <cfvo type="min"/>
@@ -12555,24 +16457,46 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="119" priority="236" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="118" priority="237" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="61" priority="236" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="60" priority="237" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L44:S44">
+  <conditionalFormatting sqref="L10:S10">
+    <cfRule type="colorScale" priority="234">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:S11">
+    <cfRule type="colorScale" priority="233">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:S12">
     <cfRule type="colorScale" priority="232">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="117" priority="233" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="116" priority="234" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54:J54">
+  <conditionalFormatting sqref="L13:S13">
     <cfRule type="colorScale" priority="231">
       <colorScale>
         <cfvo type="min"/>
@@ -12584,8 +16508,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55:J55">
-    <cfRule type="colorScale" priority="230">
+  <conditionalFormatting sqref="L9:S9">
+    <cfRule type="colorScale" priority="228">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="59" priority="229" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="58" priority="230" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N70">
+    <cfRule type="colorScale" priority="185">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12596,8 +16534,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56:J56">
-    <cfRule type="colorScale" priority="229">
+  <conditionalFormatting sqref="N71">
+    <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12608,8 +16546,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57:J57">
-    <cfRule type="colorScale" priority="228">
+  <conditionalFormatting sqref="N72">
+    <cfRule type="colorScale" priority="183">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12620,393 +16558,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F53:J53">
-    <cfRule type="colorScale" priority="225">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="115" priority="226" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="114" priority="227" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60:J60">
-    <cfRule type="colorScale" priority="224">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61:J61">
-    <cfRule type="colorScale" priority="223">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62:J62">
-    <cfRule type="colorScale" priority="222">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F63:J63">
-    <cfRule type="colorScale" priority="221">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F59:J59">
-    <cfRule type="colorScale" priority="218">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="113" priority="219" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="112" priority="220" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66:J66">
-    <cfRule type="colorScale" priority="217">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67:J67">
-    <cfRule type="colorScale" priority="216">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68:J68">
-    <cfRule type="colorScale" priority="215">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F69:J69">
-    <cfRule type="colorScale" priority="214">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F65:J65">
-    <cfRule type="colorScale" priority="211">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="111" priority="212" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="110" priority="213" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F72:J72">
-    <cfRule type="colorScale" priority="210">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F73:J73">
-    <cfRule type="colorScale" priority="209">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74:J74">
-    <cfRule type="colorScale" priority="208">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F75:J75">
-    <cfRule type="colorScale" priority="207">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F71:J71">
-    <cfRule type="colorScale" priority="204">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="109" priority="205" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="108" priority="206" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78:J78">
-    <cfRule type="colorScale" priority="203">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79:J79">
-    <cfRule type="colorScale" priority="202">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F80:J80">
-    <cfRule type="colorScale" priority="201">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F81:J81">
-    <cfRule type="colorScale" priority="200">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F77:J77">
-    <cfRule type="colorScale" priority="197">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="107" priority="198" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="106" priority="199" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84:J84">
-    <cfRule type="colorScale" priority="196">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85:J85">
-    <cfRule type="colorScale" priority="195">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86:J86">
-    <cfRule type="colorScale" priority="194">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87:J87">
-    <cfRule type="colorScale" priority="193">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83:J83">
-    <cfRule type="colorScale" priority="190">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="105" priority="191" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="104" priority="192" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90:J90">
-    <cfRule type="colorScale" priority="189">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91:J91">
-    <cfRule type="colorScale" priority="188">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:J92">
-    <cfRule type="colorScale" priority="187">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F93:J93">
-    <cfRule type="colorScale" priority="186">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89:J89">
-    <cfRule type="colorScale" priority="183">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="103" priority="184" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="102" priority="185" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10:S10">
+  <conditionalFormatting sqref="N73">
     <cfRule type="colorScale" priority="182">
       <colorScale>
         <cfvo type="min"/>
@@ -13018,44 +16570,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:S11">
-    <cfRule type="colorScale" priority="181">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12:S12">
-    <cfRule type="colorScale" priority="180">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13:S13">
+  <conditionalFormatting sqref="N69">
     <cfRule type="colorScale" priority="179">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9:S9">
-    <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13065,59 +16581,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="101" priority="177" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="100" priority="178" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="57" priority="180" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="56" priority="181" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N70">
-    <cfRule type="colorScale" priority="133">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N71">
-    <cfRule type="colorScale" priority="132">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N72">
-    <cfRule type="colorScale" priority="131">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N73">
-    <cfRule type="colorScale" priority="130">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N69">
-    <cfRule type="colorScale" priority="127">
+  <conditionalFormatting sqref="C129:G129">
+    <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13127,11 +16595,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="99" priority="128" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="98" priority="129" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="55" priority="156" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="54" priority="157" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C129:G129">
-    <cfRule type="colorScale" priority="103">
+  <conditionalFormatting sqref="C130:G130">
+    <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13141,11 +16609,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="97" priority="104" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="96" priority="105" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="53" priority="153" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="52" priority="154" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C130:G130">
-    <cfRule type="colorScale" priority="100">
+  <conditionalFormatting sqref="C131:G131">
+    <cfRule type="colorScale" priority="149">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13155,11 +16623,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="95" priority="101" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="94" priority="102" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="51" priority="150" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="50" priority="151" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C131:G131">
-    <cfRule type="colorScale" priority="97">
+  <conditionalFormatting sqref="C132:G132">
+    <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13169,11 +16637,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="93" priority="98" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="92" priority="99" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="49" priority="147" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="48" priority="148" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C132:G132">
-    <cfRule type="colorScale" priority="94">
+  <conditionalFormatting sqref="C133:G133">
+    <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13183,11 +16651,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="91" priority="95" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="90" priority="96" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="47" priority="144" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="46" priority="145" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C133:G133">
-    <cfRule type="colorScale" priority="91">
+  <conditionalFormatting sqref="C134:G134">
+    <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13197,11 +16665,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="89" priority="92" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="88" priority="93" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="45" priority="141" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="44" priority="142" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C134:G134">
-    <cfRule type="colorScale" priority="88">
+  <conditionalFormatting sqref="C135:G135">
+    <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13211,11 +16679,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="87" priority="89" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="86" priority="90" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="43" priority="138" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="42" priority="139" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C135:G135">
-    <cfRule type="colorScale" priority="85">
+  <conditionalFormatting sqref="C153:J153">
+    <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13225,11 +16693,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="85" priority="86" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="84" priority="87" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="41" priority="135" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="40" priority="136" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C153:J153">
-    <cfRule type="colorScale" priority="82">
+  <conditionalFormatting sqref="K153:R153">
+    <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13239,11 +16707,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="83" priority="83" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="82" priority="84" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="39" priority="132" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="38" priority="133" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K153:R153">
-    <cfRule type="colorScale" priority="79">
+  <conditionalFormatting sqref="C154:J154">
+    <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13253,11 +16721,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="81" priority="80" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="80" priority="81" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="37" priority="129" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="36" priority="130" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C154:J154">
-    <cfRule type="colorScale" priority="76">
+  <conditionalFormatting sqref="K154:R154">
+    <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13267,11 +16735,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="79" priority="77" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="78" priority="78" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="35" priority="126" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="34" priority="127" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K154:R154">
-    <cfRule type="colorScale" priority="73">
+  <conditionalFormatting sqref="C155:J155">
+    <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13281,11 +16749,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="77" priority="74" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="76" priority="75" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="33" priority="123" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="32" priority="124" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C155:J155">
-    <cfRule type="colorScale" priority="70">
+  <conditionalFormatting sqref="K155:R155">
+    <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13295,11 +16763,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="75" priority="71" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="74" priority="72" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="31" priority="120" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="30" priority="121" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K155:R155">
-    <cfRule type="colorScale" priority="67">
+  <conditionalFormatting sqref="C156:J156">
+    <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13309,11 +16777,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="73" priority="68" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="72" priority="69" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="29" priority="117" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="28" priority="118" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C156:J156">
-    <cfRule type="colorScale" priority="64">
+  <conditionalFormatting sqref="K156:R156">
+    <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13323,11 +16791,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="71" priority="65" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="70" priority="66" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="27" priority="114" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="26" priority="115" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K156:R156">
-    <cfRule type="colorScale" priority="61">
+  <conditionalFormatting sqref="C157:J157">
+    <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13337,11 +16805,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="69" priority="62" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="68" priority="63" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="25" priority="111" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="24" priority="112" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C157:J157">
-    <cfRule type="colorScale" priority="58">
+  <conditionalFormatting sqref="K157:R157">
+    <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13351,11 +16819,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="67" priority="59" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="66" priority="60" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="23" priority="108" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="22" priority="109" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K157:R157">
-    <cfRule type="colorScale" priority="55">
+  <conditionalFormatting sqref="C159:J159">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13365,11 +16833,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="65" priority="56" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="64" priority="57" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="105" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="20" priority="106" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C159:J159">
-    <cfRule type="colorScale" priority="52">
+  <conditionalFormatting sqref="K159:R159">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13379,10 +16847,38 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="63" priority="53" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="62" priority="54" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="19" priority="102" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="18" priority="103" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K159:R159">
+  <conditionalFormatting sqref="C158:J158">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="17" priority="99" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="16" priority="100" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K158:R158">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="15" priority="96" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="14" priority="97" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E167:E174">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -13393,10 +16889,32 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="61" priority="50" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="60" priority="51" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C158:J158">
+  <conditionalFormatting sqref="F167:F174">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G167:G174">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H167:H174">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -13407,10 +16925,32 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="59" priority="47" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="58" priority="48" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K158:R158">
+  <conditionalFormatting sqref="I167:I174">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J167:J174">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K167:K174">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -13421,10 +16961,32 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="57" priority="44" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="56" priority="45" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E167:E174">
+  <conditionalFormatting sqref="E175:E182">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F175:F182">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G175:G182">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -13435,10 +16997,32 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="27" priority="41" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="26" priority="42" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E175:E182">
+  <conditionalFormatting sqref="H175:H182">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I175:I182">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J175:J182">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -13449,11 +17033,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="25" priority="38" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="24" priority="39" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F167:F174">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="K175:K182">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13463,162 +17045,6 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="23" priority="35" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="22" priority="36" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F175:F182">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="21" priority="32" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="20" priority="33" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G167:G174">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="19" priority="29" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="18" priority="30" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G175:G182">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="17" priority="26" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="16" priority="27" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H167:H174">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="15" priority="23" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="14" priority="24" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H175:H182">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="13" priority="20" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="12" priority="21" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I167:I174">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="11" priority="17" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="10" priority="18" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I175:I182">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="9" priority="14" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="8" priority="15" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K167:K174">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="7" priority="11" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="6" priority="12" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K175:K182">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="5" priority="8" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="4" priority="9" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J167:J174">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="3" priority="5" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="2" priority="6" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J175:J182">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="0" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/wyniki.xlsx
+++ b/doc/wyniki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="53">
   <si>
     <t>clip01</t>
   </si>
@@ -607,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -669,6 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -708,2011 +709,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="300">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="100">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4138,6 +2151,25 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Sekwencja</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4156,7 +2188,26 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Błąd średniokwadratowy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4166,7 +2217,7 @@
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -5473,10 +3524,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="134"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="34"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -6106,6 +4157,25 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Sekwencja</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6124,6 +4194,25 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Błąd średniokwadratowy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -6134,7 +4223,7 @@
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -6790,6 +4879,25 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Sekwencja</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6808,6 +4916,30 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Błąd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> średniokwadratowy</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -6818,7 +4950,7 @@
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -6860,11 +4992,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$229</c:f>
+              <c:f>Sheet1!$O$57:$O$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Średnia</c:v>
+                  <c:v>Metoda Mediana</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6872,7 +5004,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$228:$I$228</c:f>
+              <c:f>Sheet1!$N$59:$N$65</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -6901,30 +5033,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$229:$I$229</c:f>
+              <c:f>Sheet1!$O$59:$O$65</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>85.9989474508303</c:v>
+                  <c:v>53.892113710105299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.393422872502398</c:v>
+                  <c:v>13.1535982393723</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>198.54944371471601</c:v>
+                  <c:v>201.54178446228701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.8719152045512</c:v>
+                  <c:v>32.724114684365702</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.753714622641503</c:v>
+                  <c:v>36.534389740565999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.498554687499997</c:v>
+                  <c:v>52.789596354166697</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.04234722222201</c:v>
+                  <c:v>24.915791666666699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6935,11 +5067,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$230</c:f>
+              <c:f>Sheet1!$P$57:$P$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mediana</c:v>
+                  <c:v>Metoda MOG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6947,7 +5079,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$228:$I$228</c:f>
+              <c:f>Sheet1!$N$59:$N$65</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -6976,82 +5108,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$230:$I$230</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>53.892113710105299</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.1535982393723</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>201.54178446228701</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32.724114684365702</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36.534389740565999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52.789596354166697</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.915791666666699</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$231</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MOG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$228:$I$228</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>clip_01.mpg</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>clip_02.mpg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>clip_03.mpg</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>clip_04.mpg</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>fountain.mpg</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>highway.mpg</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>pedestrians.mpg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$231:$I$231</c:f>
+              <c:f>Sheet1!$P$59:$P$65</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7075,231 +5132,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>33.341111111111097</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$232</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Aproksymacja średniej</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$228:$I$228</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>clip_01.mpg</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>clip_02.mpg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>clip_03.mpg</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>clip_04.mpg</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>fountain.mpg</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>highway.mpg</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>pedestrians.mpg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$232:$I$232</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>64.549156655851206</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.543028384032599</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>151.619960159709</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21.694773788916098</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.092158018867901</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>71.376106770833303</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>67.848944444444399</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$233</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DCT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$228:$I$228</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>clip_01.mpg</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>clip_02.mpg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>clip_03.mpg</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>clip_04.mpg</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>fountain.mpg</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>highway.mpg</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>pedestrians.mpg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$233:$I$233</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>43.188145338772998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37.526083212275701</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>183.35071634234799</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34.174657921519803</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70.76953125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47.315195312500002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>84.560569444444397</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$234</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hadamard</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$228:$I$228</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>clip_01.mpg</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>clip_02.mpg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>clip_03.mpg</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>clip_04.mpg</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>fountain.mpg</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>highway.mpg</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>pedestrians.mpg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$234:$I$234</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>43.186792682608598</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37.505075722649003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>183.34579284788501</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34.360867787646001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70.773565779999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47.859283854166698</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>84.545694444444507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7314,20 +5146,39 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155653632"/>
-        <c:axId val="155702400"/>
+        <c:axId val="120008064"/>
+        <c:axId val="120128640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155653632"/>
+        <c:axId val="120008064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sekwencja</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155702400"/>
+        <c:crossAx val="120128640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7335,24 +5186,43 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155702400"/>
+        <c:axId val="120128640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Błąd średniokwadratowy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155653632"/>
+        <c:crossAx val="120008064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -7394,11 +5264,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$57:$O$58</c:f>
+              <c:f>Sheet1!$C$253:$C$254</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Metoda Mediana</c:v>
+                  <c:v>Metoda MOG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7406,7 +5276,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$N$59:$N$65</c:f>
+              <c:f>Sheet1!$B$255:$B$261</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -7435,30 +5305,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$59:$O$65</c:f>
+              <c:f>Sheet1!$C$255:$C$261</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>53.892113710105299</c:v>
+                  <c:v>86.263981071512504</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.1535982393723</c:v>
+                  <c:v>25.1932602058125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>201.54178446228701</c:v>
+                  <c:v>181.01076035804101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.724114684365702</c:v>
+                  <c:v>63.4836854878696</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.534389740565999</c:v>
+                  <c:v>29.11328125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.789596354166697</c:v>
+                  <c:v>55.6217447916667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.915791666666699</c:v>
+                  <c:v>33.341111111111097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7469,11 +5339,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$57:$P$58</c:f>
+              <c:f>Sheet1!$D$253:$D$254</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Metoda MOG</c:v>
+                  <c:v>Metoda DCT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7481,7 +5351,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$N$59:$N$65</c:f>
+              <c:f>Sheet1!$B$255:$B$261</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -7510,30 +5380,105 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$59:$P$65</c:f>
+              <c:f>Sheet1!$D$255:$D$261</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>86.263981071512504</c:v>
+                  <c:v>43.188145338772998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.1932602058125</c:v>
+                  <c:v>37.526083212275701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>181.01076035804101</c:v>
+                  <c:v>183.35071634234799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.4836854878696</c:v>
+                  <c:v>34.174657921519803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.11328125</c:v>
+                  <c:v>70.76953125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.6217447916667</c:v>
+                  <c:v>47.315195312500002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.341111111111097</c:v>
+                  <c:v>84.560569444444397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$253:$E$254</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Metoda Hadamard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$255:$B$261</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$255:$E$261</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43.186792682608598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.505075722649003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183.34579284788501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.360867787646001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.773565779999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.859283854166698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.545694444444507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7548,20 +5493,40 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="120008064"/>
-        <c:axId val="120128640"/>
+        <c:axId val="155701248"/>
+        <c:axId val="155931776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120008064"/>
+        <c:axId val="155701248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Sekwencja</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120128640"/>
+        <c:crossAx val="155931776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7569,24 +5534,615 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120128640"/>
+        <c:axId val="155931776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Błąd średniokwadratowy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120008064"/>
+        <c:crossAx val="155701248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$229</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Średnia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$227:$I$228</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$229:$I$229</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>85.9989474508303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.393422872502398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198.54944371471601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.8719152045512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.753714622641503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.498554687499997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105.04234722222201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$230</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mediana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$227:$I$228</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$230:$I$230</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>53.892113710105299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.1535982393723</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201.54178446228701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.724114684365702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.534389740565999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.789596354166697</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.915791666666699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$231</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MOG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$227:$I$228</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$231:$I$231</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>86.263981071512504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.1932602058125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181.01076035804101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.4836854878696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.11328125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.6217447916667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.341111111111097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$232</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aproksymacja średniej</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$227:$I$228</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$232:$I$232</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64.549156655851206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.543028384032599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>151.619960159709</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.694773788916098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.092158018867901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.376106770833303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.848944444444399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$233</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DCT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$227:$I$228</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$233:$I$233</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43.188145338772998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.526083212275701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183.35071634234799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.174657921519803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.76953125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.315195312500002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.560569444444397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$234</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hadamard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$227:$I$228</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>clip_01.mpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>clip_02.mpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>clip_03.mpg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>clip_04.mpg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fountain.mpg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>highway.mpg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pedestrians.mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$234:$I$234</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43.186792682608598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.505075722649003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183.34579284788501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.360867787646001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.773565779999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.859283854166698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.545694444444507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="192054400"/>
+        <c:axId val="192056320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="192054400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sekwencja</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="192056320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="192056320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Błąd średniokwadratowy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="192054400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -7608,14 +6164,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>324969</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>40340</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>129987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>661146</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7637,15 +6193,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>268940</xdr:colOff>
+      <xdr:colOff>201705</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>68355</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1042147</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7699,13 +6255,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>448234</xdr:colOff>
       <xdr:row>178</xdr:row>
-      <xdr:rowOff>214030</xdr:rowOff>
+      <xdr:rowOff>146795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>123264</xdr:colOff>
       <xdr:row>196</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
+      <xdr:rowOff>112060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7719,36 +6275,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>918880</xdr:colOff>
-      <xdr:row>224</xdr:row>
-      <xdr:rowOff>169209</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>425822</xdr:colOff>
-      <xdr:row>247</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7778,7 +6304,67 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>158003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>549087</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>146796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8074,10 +6660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI245"/>
+  <dimension ref="A1:AI271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L216" sqref="L216"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11368,20 +9954,20 @@
       <c r="J57" s="6">
         <v>0.16675075461686301</v>
       </c>
-      <c r="N57" s="33" t="s">
+      <c r="N57" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="O57" s="33" t="s">
+      <c r="O57" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="P57" s="33"/>
+      <c r="P57" s="34"/>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N58" s="33"/>
-      <c r="O58" s="31" t="s">
+      <c r="N58" s="34"/>
+      <c r="O58" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="P58" s="31" t="s">
+      <c r="P58" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -11416,13 +10002,13 @@
       <c r="J59" s="2">
         <v>48.315529884567503</v>
       </c>
-      <c r="N59" s="32" t="s">
+      <c r="N59" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="O59" s="37">
+      <c r="O59" s="38">
         <v>53.892113710105299</v>
       </c>
-      <c r="P59" s="37">
+      <c r="P59" s="38">
         <v>86.263981071512504</v>
       </c>
     </row>
@@ -11454,13 +10040,13 @@
       <c r="J60">
         <v>0.99406745013439601</v>
       </c>
-      <c r="N60" s="32" t="s">
+      <c r="N60" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="O60" s="37">
+      <c r="O60" s="38">
         <v>13.1535982393723</v>
       </c>
-      <c r="P60" s="37">
+      <c r="P60" s="38">
         <v>25.1932602058125</v>
       </c>
     </row>
@@ -11492,13 +10078,13 @@
       <c r="J61">
         <v>0.91956262667559696</v>
       </c>
-      <c r="N61" s="32" t="s">
+      <c r="N61" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="O61" s="37">
+      <c r="O61" s="38">
         <v>201.54178446228701</v>
       </c>
-      <c r="P61" s="37">
+      <c r="P61" s="38">
         <v>181.01076035804101</v>
       </c>
     </row>
@@ -11530,13 +10116,13 @@
       <c r="J62">
         <v>0.72841186857923301</v>
       </c>
-      <c r="N62" s="32" t="s">
+      <c r="N62" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="O62" s="37">
+      <c r="O62" s="38">
         <v>32.724114684365702</v>
       </c>
-      <c r="P62" s="37">
+      <c r="P62" s="38">
         <v>63.4836854878696</v>
       </c>
     </row>
@@ -11568,24 +10154,24 @@
       <c r="J63">
         <v>0.46780591341260802</v>
       </c>
-      <c r="N63" s="32" t="s">
+      <c r="N63" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="O63" s="37">
+      <c r="O63" s="38">
         <v>36.534389740565999</v>
       </c>
-      <c r="P63" s="37">
+      <c r="P63" s="38">
         <v>29.11328125</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N64" s="32" t="s">
+      <c r="N64" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="O64" s="37">
+      <c r="O64" s="38">
         <v>52.789596354166697</v>
       </c>
-      <c r="P64" s="37">
+      <c r="P64" s="38">
         <v>55.6217447916667</v>
       </c>
     </row>
@@ -11620,13 +10206,13 @@
       <c r="J65" s="2">
         <v>151.619960159709</v>
       </c>
-      <c r="N65" s="32" t="s">
+      <c r="N65" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="O65" s="37">
+      <c r="O65" s="38">
         <v>24.915791666666699</v>
       </c>
-      <c r="P65" s="37">
+      <c r="P65" s="38">
         <v>33.341111111111097</v>
       </c>
     </row>
@@ -14759,404 +13345,564 @@
       </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B227" s="34" t="s">
+      <c r="B227" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C227" s="34" t="s">
+      <c r="C227" s="35"/>
+      <c r="D227" s="35"/>
+      <c r="E227" s="35"/>
+      <c r="F227" s="35"/>
+      <c r="G227" s="35"/>
+      <c r="H227" s="35"/>
+      <c r="I227" s="35"/>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B228" s="35"/>
+      <c r="C228" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D228" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E228" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F228" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G228" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H228" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I228" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B229" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C229" s="38">
+        <v>85.9989474508303</v>
+      </c>
+      <c r="D229" s="38">
+        <v>38.393422872502398</v>
+      </c>
+      <c r="E229" s="38">
+        <v>198.54944371471601</v>
+      </c>
+      <c r="F229" s="38">
+        <v>62.8719152045512</v>
+      </c>
+      <c r="G229" s="38">
+        <v>37.753714622641503</v>
+      </c>
+      <c r="H229" s="38">
+        <v>56.498554687499997</v>
+      </c>
+      <c r="I229" s="38">
+        <v>105.04234722222201</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B230" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C230" s="38">
+        <v>53.892113710105299</v>
+      </c>
+      <c r="D230" s="38">
+        <v>13.1535982393723</v>
+      </c>
+      <c r="E230" s="38">
+        <v>201.54178446228701</v>
+      </c>
+      <c r="F230" s="38">
+        <v>32.724114684365702</v>
+      </c>
+      <c r="G230" s="38">
+        <v>36.534389740565999</v>
+      </c>
+      <c r="H230" s="38">
+        <v>52.789596354166697</v>
+      </c>
+      <c r="I230" s="38">
+        <v>24.915791666666699</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B231" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C231" s="38">
+        <v>86.263981071512504</v>
+      </c>
+      <c r="D231" s="38">
+        <v>25.1932602058125</v>
+      </c>
+      <c r="E231" s="38">
+        <v>181.01076035804101</v>
+      </c>
+      <c r="F231" s="38">
+        <v>63.4836854878696</v>
+      </c>
+      <c r="G231" s="38">
+        <v>29.11328125</v>
+      </c>
+      <c r="H231" s="38">
+        <v>55.6217447916667</v>
+      </c>
+      <c r="I231" s="38">
+        <v>33.341111111111097</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B232" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C232" s="38">
+        <v>64.549156655851206</v>
+      </c>
+      <c r="D232" s="38">
+        <v>29.543028384032599</v>
+      </c>
+      <c r="E232" s="38">
+        <v>151.619960159709</v>
+      </c>
+      <c r="F232" s="38">
+        <v>21.694773788916098</v>
+      </c>
+      <c r="G232" s="38">
+        <v>13.092158018867901</v>
+      </c>
+      <c r="H232" s="38">
+        <v>71.376106770833303</v>
+      </c>
+      <c r="I232" s="38">
+        <v>67.848944444444399</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B233" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C233" s="38">
+        <v>43.188145338772998</v>
+      </c>
+      <c r="D233" s="38">
+        <v>37.526083212275701</v>
+      </c>
+      <c r="E233" s="38">
+        <v>183.35071634234799</v>
+      </c>
+      <c r="F233" s="38">
+        <v>34.174657921519803</v>
+      </c>
+      <c r="G233" s="38">
+        <v>70.76953125</v>
+      </c>
+      <c r="H233" s="38">
+        <v>47.315195312500002</v>
+      </c>
+      <c r="I233" s="38">
+        <v>84.560569444444397</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B234" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C234" s="38">
+        <v>43.186792682608598</v>
+      </c>
+      <c r="D234" s="38">
+        <v>37.505075722649003</v>
+      </c>
+      <c r="E234" s="38">
+        <v>183.34579284788501</v>
+      </c>
+      <c r="F234" s="38">
+        <v>34.360867787646001</v>
+      </c>
+      <c r="G234" s="38">
+        <v>70.773565779999998</v>
+      </c>
+      <c r="H234" s="38">
+        <v>47.859283854166698</v>
+      </c>
+      <c r="I234" s="38">
+        <v>84.545694444444507</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C237" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D227" s="34"/>
-      <c r="E227" s="34"/>
-      <c r="F227" s="34"/>
-      <c r="G227" s="34"/>
-      <c r="H227" s="34"/>
-      <c r="I227" s="34"/>
-    </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B228" s="34"/>
-      <c r="C228" s="35" t="s">
+      <c r="D237" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="49"/>
+      <c r="F237" s="49"/>
+      <c r="G237" s="49"/>
+      <c r="H237" s="49"/>
+      <c r="I237" s="50"/>
+    </row>
+    <row r="238" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B238" s="40"/>
+      <c r="C238" s="47"/>
+      <c r="D238" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E238" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F238" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G238" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H238" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I238" s="44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B239" s="41"/>
+      <c r="C239" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D228" s="35" t="s">
+      <c r="D239" s="38">
+        <v>85.9989474508303</v>
+      </c>
+      <c r="E239" s="38">
+        <v>53.892113710105299</v>
+      </c>
+      <c r="F239" s="38">
+        <v>86.263981071512504</v>
+      </c>
+      <c r="G239" s="38">
+        <v>64.549156655851206</v>
+      </c>
+      <c r="H239" s="38">
+        <v>43.188145338772998</v>
+      </c>
+      <c r="I239" s="38">
+        <v>43.186792682608598</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B240" s="42"/>
+      <c r="C240" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E228" s="35" t="s">
+      <c r="D240" s="38">
+        <v>38.393422872502398</v>
+      </c>
+      <c r="E240" s="38">
+        <v>13.1535982393723</v>
+      </c>
+      <c r="F240" s="38">
+        <v>25.1932602058125</v>
+      </c>
+      <c r="G240" s="38">
+        <v>29.543028384032599</v>
+      </c>
+      <c r="H240" s="38">
+        <v>37.526083212275701</v>
+      </c>
+      <c r="I240" s="38">
+        <v>37.505075722649003</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B241" s="42"/>
+      <c r="C241" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F228" s="35" t="s">
+      <c r="D241" s="38">
+        <v>198.54944371471601</v>
+      </c>
+      <c r="E241" s="38">
+        <v>201.54178446228701</v>
+      </c>
+      <c r="F241" s="38">
+        <v>181.01076035804101</v>
+      </c>
+      <c r="G241" s="38">
+        <v>151.619960159709</v>
+      </c>
+      <c r="H241" s="38">
+        <v>183.35071634234799</v>
+      </c>
+      <c r="I241" s="38">
+        <v>183.34579284788501</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B242" s="42"/>
+      <c r="C242" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="G228" s="35" t="s">
+      <c r="D242" s="38">
+        <v>62.8719152045512</v>
+      </c>
+      <c r="E242" s="38">
+        <v>32.724114684365702</v>
+      </c>
+      <c r="F242" s="38">
+        <v>63.4836854878696</v>
+      </c>
+      <c r="G242" s="38">
+        <v>21.694773788916098</v>
+      </c>
+      <c r="H242" s="38">
+        <v>34.174657921519803</v>
+      </c>
+      <c r="I242" s="38">
+        <v>34.360867787646001</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B243" s="42"/>
+      <c r="C243" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H228" s="35" t="s">
+      <c r="D243" s="38">
+        <v>37.753714622641503</v>
+      </c>
+      <c r="E243" s="38">
+        <v>36.534389740565999</v>
+      </c>
+      <c r="F243" s="38">
+        <v>29.11328125</v>
+      </c>
+      <c r="G243" s="38">
+        <v>13.092158018867901</v>
+      </c>
+      <c r="H243" s="38">
+        <v>70.76953125</v>
+      </c>
+      <c r="I243" s="38">
+        <v>70.773565779999998</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B244" s="42"/>
+      <c r="C244" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="I228" s="35" t="s">
+      <c r="D244" s="38">
+        <v>56.498554687499997</v>
+      </c>
+      <c r="E244" s="38">
+        <v>52.789596354166697</v>
+      </c>
+      <c r="F244" s="38">
+        <v>55.6217447916667</v>
+      </c>
+      <c r="G244" s="38">
+        <v>71.376106770833303</v>
+      </c>
+      <c r="H244" s="38">
+        <v>47.315195312500002</v>
+      </c>
+      <c r="I244" s="38">
+        <v>47.859283854166698</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B245" s="43"/>
+      <c r="C245" s="44" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B229" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C229" s="37">
-        <v>85.9989474508303</v>
-      </c>
-      <c r="D229" s="37">
-        <v>38.393422872502398</v>
-      </c>
-      <c r="E229" s="37">
-        <v>198.54944371471601</v>
-      </c>
-      <c r="F229" s="37">
-        <v>62.8719152045512</v>
-      </c>
-      <c r="G229" s="37">
-        <v>37.753714622641503</v>
-      </c>
-      <c r="H229" s="37">
-        <v>56.498554687499997</v>
-      </c>
-      <c r="I229" s="37">
+      <c r="D245" s="38">
         <v>105.04234722222201</v>
       </c>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B230" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C230" s="37">
-        <v>53.892113710105299</v>
-      </c>
-      <c r="D230" s="37">
-        <v>13.1535982393723</v>
-      </c>
-      <c r="E230" s="37">
-        <v>201.54178446228701</v>
-      </c>
-      <c r="F230" s="37">
-        <v>32.724114684365702</v>
-      </c>
-      <c r="G230" s="37">
-        <v>36.534389740565999</v>
-      </c>
-      <c r="H230" s="37">
-        <v>52.789596354166697</v>
-      </c>
-      <c r="I230" s="37">
+      <c r="E245" s="38">
         <v>24.915791666666699</v>
       </c>
-    </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B231" s="36" t="s">
+      <c r="F245" s="38">
+        <v>33.341111111111097</v>
+      </c>
+      <c r="G245" s="38">
+        <v>67.848944444444399</v>
+      </c>
+      <c r="H245" s="38">
+        <v>84.560569444444397</v>
+      </c>
+      <c r="I245" s="38">
+        <v>84.545694444444507</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B253" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C253" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" s="54"/>
+      <c r="E253" s="54"/>
+      <c r="F253" s="51"/>
+      <c r="G253" s="51"/>
+      <c r="H253" s="52"/>
+    </row>
+    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B254" s="54"/>
+      <c r="C254" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C231" s="37">
+      <c r="D254" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E254" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F254" s="53"/>
+    </row>
+    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B255" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C255" s="38">
         <v>86.263981071512504</v>
       </c>
-      <c r="D231" s="37">
+      <c r="D255" s="38">
+        <v>43.188145338772998</v>
+      </c>
+      <c r="E255" s="38">
+        <v>43.186792682608598</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B256" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C256" s="38">
         <v>25.1932602058125</v>
       </c>
-      <c r="E231" s="37">
+      <c r="D256" s="38">
+        <v>37.526083212275701</v>
+      </c>
+      <c r="E256" s="38">
+        <v>37.505075722649003</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B257" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C257" s="38">
         <v>181.01076035804101</v>
       </c>
-      <c r="F231" s="37">
+      <c r="D257" s="38">
+        <v>183.35071634234799</v>
+      </c>
+      <c r="E257" s="38">
+        <v>183.34579284788501</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B258" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C258" s="38">
         <v>63.4836854878696</v>
       </c>
-      <c r="G231" s="37">
+      <c r="D258" s="38">
+        <v>34.174657921519803</v>
+      </c>
+      <c r="E258" s="38">
+        <v>34.360867787646001</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B259" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C259" s="38">
         <v>29.11328125</v>
       </c>
-      <c r="H231" s="37">
+      <c r="D259" s="38">
+        <v>70.76953125</v>
+      </c>
+      <c r="E259" s="38">
+        <v>70.773565779999998</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B260" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C260" s="38">
         <v>55.6217447916667</v>
       </c>
-      <c r="I231" s="37">
+      <c r="D260" s="38">
+        <v>47.315195312500002</v>
+      </c>
+      <c r="E260" s="38">
+        <v>47.859283854166698</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B261" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C261" s="38">
         <v>33.341111111111097</v>
       </c>
-    </row>
-    <row r="232" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B232" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C232" s="37">
-        <v>64.549156655851206</v>
-      </c>
-      <c r="D232" s="37">
-        <v>29.543028384032599</v>
-      </c>
-      <c r="E232" s="37">
-        <v>151.619960159709</v>
-      </c>
-      <c r="F232" s="37">
-        <v>21.694773788916098</v>
-      </c>
-      <c r="G232" s="37">
-        <v>13.092158018867901</v>
-      </c>
-      <c r="H232" s="37">
-        <v>71.376106770833303</v>
-      </c>
-      <c r="I232" s="37">
-        <v>67.848944444444399</v>
-      </c>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B233" s="35" t="s">
+      <c r="D261" s="38">
+        <v>84.560569444444397</v>
+      </c>
+      <c r="E261" s="38">
+        <v>84.545694444444507</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B264" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C264" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D264" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C233" s="37">
-        <v>43.188145338772998</v>
-      </c>
-      <c r="D233" s="37">
-        <v>37.526083212275701</v>
-      </c>
-      <c r="E233" s="37">
-        <v>183.35071634234799</v>
-      </c>
-      <c r="F233" s="37">
-        <v>34.174657921519803</v>
-      </c>
-      <c r="G233" s="37">
-        <v>70.76953125</v>
-      </c>
-      <c r="H233" s="37">
-        <v>47.315195312500002</v>
-      </c>
-      <c r="I233" s="37">
-        <v>84.560569444444397</v>
-      </c>
-    </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B234" s="35" t="s">
+      <c r="E264" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C234" s="37">
-        <v>43.186792682608598</v>
-      </c>
-      <c r="D234" s="37">
-        <v>37.505075722649003</v>
-      </c>
-      <c r="E234" s="37">
-        <v>183.34579284788501</v>
-      </c>
-      <c r="F234" s="37">
-        <v>34.360867787646001</v>
-      </c>
-      <c r="G234" s="37">
-        <v>70.773565779999998</v>
-      </c>
-      <c r="H234" s="37">
-        <v>47.859283854166698</v>
-      </c>
-      <c r="I234" s="37">
-        <v>84.545694444444507</v>
-      </c>
-    </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C237" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="D237" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="E237" s="48"/>
-      <c r="F237" s="48"/>
-      <c r="G237" s="48"/>
-      <c r="H237" s="48"/>
-      <c r="I237" s="49"/>
-    </row>
-    <row r="238" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B238" s="39"/>
-      <c r="C238" s="46"/>
-      <c r="D238" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="E238" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F238" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G238" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="H238" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="I238" s="43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B239" s="40"/>
-      <c r="C239" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D239" s="37">
-        <v>85.9989474508303</v>
-      </c>
-      <c r="E239" s="37">
-        <v>53.892113710105299</v>
-      </c>
-      <c r="F239" s="37">
-        <v>86.263981071512504</v>
-      </c>
-      <c r="G239" s="37">
-        <v>64.549156655851206</v>
-      </c>
-      <c r="H239" s="37">
-        <v>43.188145338772998</v>
-      </c>
-      <c r="I239" s="37">
-        <v>43.186792682608598</v>
-      </c>
-    </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B240" s="41"/>
-      <c r="C240" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D240" s="37">
-        <v>38.393422872502398</v>
-      </c>
-      <c r="E240" s="37">
-        <v>13.1535982393723</v>
-      </c>
-      <c r="F240" s="37">
-        <v>25.1932602058125</v>
-      </c>
-      <c r="G240" s="37">
-        <v>29.543028384032599</v>
-      </c>
-      <c r="H240" s="37">
-        <v>37.526083212275701</v>
-      </c>
-      <c r="I240" s="37">
-        <v>37.505075722649003</v>
-      </c>
-    </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B241" s="41"/>
-      <c r="C241" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D241" s="37">
-        <v>198.54944371471601</v>
-      </c>
-      <c r="E241" s="37">
-        <v>201.54178446228701</v>
-      </c>
-      <c r="F241" s="37">
-        <v>181.01076035804101</v>
-      </c>
-      <c r="G241" s="37">
-        <v>151.619960159709</v>
-      </c>
-      <c r="H241" s="37">
-        <v>183.35071634234799</v>
-      </c>
-      <c r="I241" s="37">
-        <v>183.34579284788501</v>
-      </c>
-    </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B242" s="41"/>
-      <c r="C242" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D242" s="37">
-        <v>62.8719152045512</v>
-      </c>
-      <c r="E242" s="37">
-        <v>32.724114684365702</v>
-      </c>
-      <c r="F242" s="37">
-        <v>63.4836854878696</v>
-      </c>
-      <c r="G242" s="37">
-        <v>21.694773788916098</v>
-      </c>
-      <c r="H242" s="37">
-        <v>34.174657921519803</v>
-      </c>
-      <c r="I242" s="37">
-        <v>34.360867787646001</v>
-      </c>
-    </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B243" s="41"/>
-      <c r="C243" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D243" s="37">
-        <v>37.753714622641503</v>
-      </c>
-      <c r="E243" s="37">
-        <v>36.534389740565999</v>
-      </c>
-      <c r="F243" s="37">
-        <v>29.11328125</v>
-      </c>
-      <c r="G243" s="37">
-        <v>13.092158018867901</v>
-      </c>
-      <c r="H243" s="37">
-        <v>70.76953125</v>
-      </c>
-      <c r="I243" s="37">
-        <v>70.773565779999998</v>
-      </c>
-    </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B244" s="41"/>
-      <c r="C244" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D244" s="37">
-        <v>56.498554687499997</v>
-      </c>
-      <c r="E244" s="37">
-        <v>52.789596354166697</v>
-      </c>
-      <c r="F244" s="37">
-        <v>55.6217447916667</v>
-      </c>
-      <c r="G244" s="37">
-        <v>71.376106770833303</v>
-      </c>
-      <c r="H244" s="37">
-        <v>47.315195312500002</v>
-      </c>
-      <c r="I244" s="37">
-        <v>47.859283854166698</v>
-      </c>
-    </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B245" s="42"/>
-      <c r="C245" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D245" s="37">
-        <v>105.04234722222201</v>
-      </c>
-      <c r="E245" s="37">
-        <v>24.915791666666699</v>
-      </c>
-      <c r="F245" s="37">
-        <v>33.341111111111097</v>
-      </c>
-      <c r="G245" s="37">
-        <v>67.848944444444399</v>
-      </c>
-      <c r="H245" s="37">
-        <v>84.560569444444397</v>
-      </c>
-      <c r="I245" s="37">
-        <v>84.545694444444507</v>
-      </c>
+      <c r="F264" s="23"/>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F265" s="6"/>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F266" s="2"/>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F267" s="2"/>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F268" s="2"/>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F269" s="2"/>
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F270" s="2"/>
+    </row>
+    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F271" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="52">
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="C253:E253"/>
     <mergeCell ref="C237:C238"/>
     <mergeCell ref="D237:I237"/>
     <mergeCell ref="N57:N58"/>
